--- a/BedEvolutionInput_Template.xlsx
+++ b/BedEvolutionInput_Template.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
   <si>
     <t>Station</t>
   </si>
@@ -597,6 +597,18 @@
   <si>
     <t>plot simulation results. It is up to the user to nodify this code as desired.</t>
   </si>
+  <si>
+    <t>Active layer depth</t>
+  </si>
+  <si>
+    <t>Upwinding coefficient for backwater solution</t>
+  </si>
+  <si>
+    <t>Upwinding coefficient for normal depth approximation</t>
+  </si>
+  <si>
+    <t>Exchange coefficient</t>
+  </si>
 </sst>
 </file>
 
@@ -881,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1154,6 +1166,9 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,508 +1252,507 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Input Data 2'!$A$5:$A$169</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="165"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79999999999999993</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0999999999999999</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4000000000000001</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5000000000000002</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6000000000000003</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7000000000000004</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8000000000000005</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9000000000000006</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0000000000000004</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1000000000000005</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2000000000000006</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3000000000000007</c:v>
+                  <c:v>4.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4000000000000008</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5000000000000009</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.600000000000001</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7000000000000011</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8000000000000012</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9000000000000012</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.0000000000000013</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1000000000000014</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000015</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3000000000000016</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4000000000000017</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.5000000000000018</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6000000000000019</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.700000000000002</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.800000000000002</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9000000000000021</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0000000000000018</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.1000000000000014</c:v>
+                  <c:v>8.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2000000000000011</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.3000000000000007</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>8.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>9.2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6999999999999993</c:v>
+                  <c:v>9.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.7999999999999989</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8999999999999986</c:v>
+                  <c:v>9.8</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.9999999999999982</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.0999999999999979</c:v>
+                  <c:v>10.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.1999999999999975</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.2999999999999972</c:v>
+                  <c:v>10.6</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.3999999999999968</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.4999999999999964</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5999999999999961</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.6999999999999957</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7999999999999954</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.899999999999995</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9999999999999947</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0999999999999943</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.199999999999994</c:v>
+                  <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.2999999999999936</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.3999999999999932</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.4999999999999929</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5999999999999925</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.6999999999999922</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.7999999999999918</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.8999999999999915</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.9999999999999911</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.0999999999999908</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.1999999999999904</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.2999999999999901</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.3999999999999897</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.4999999999999893</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.599999999999989</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.6999999999999886</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.7999999999999883</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.8999999999999879</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.9999999999999876</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.0999999999999872</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.1999999999999869</c:v>
+                  <c:v>16.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.2999999999999865</c:v>
+                  <c:v>stop</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.3999999999999861</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.4999999999999858</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.5999999999999854</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8.6999999999999851</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7999999999999847</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.8999999999999844</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.999999999999984</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.0999999999999837</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.1999999999999833</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.2999999999999829</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.3999999999999826</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.4999999999999822</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.5999999999999819</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.6999999999999815</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.7999999999999812</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.8999999999999808</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.9999999999999805</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.09999999999998</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>10.19999999999998</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.299999999999979</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10.399999999999979</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.499999999999979</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>10.599999999999978</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>10.699999999999978</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.799999999999978</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>10.899999999999977</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10.999999999999977</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>11.099999999999977</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>11.199999999999976</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.299999999999976</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>11.399999999999975</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>11.499999999999975</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>11.599999999999975</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>11.699999999999974</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11.799999999999974</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>11.899999999999974</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>11.999999999999973</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>12.099999999999973</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>12.199999999999973</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>12.299999999999972</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>12.399999999999972</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>12.499999999999972</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>12.599999999999971</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>12.699999999999971</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>12.799999999999971</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>12.89999999999997</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>12.99999999999997</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>13.099999999999969</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>13.199999999999969</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>13.299999999999969</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>13.399999999999968</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>13.499999999999968</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>13.599999999999968</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>13.699999999999967</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>13.799999999999967</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>13.899999999999967</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>13.999999999999966</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>14.099999999999966</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>14.199999999999966</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>14.299999999999965</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>14.399999999999965</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>14.499999999999964</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>14.599999999999964</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>14.699999999999964</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>14.799999999999963</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>14.899999999999963</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>14.999999999999963</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>15.099999999999962</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>15.199999999999962</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>15.299999999999962</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>15.399999999999961</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>15.499999999999961</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15.599999999999961</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>15.69999999999996</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15.79999999999996</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>15.899999999999959</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>15.999999999999959</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>16.099999999999959</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>16.19999999999996</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>16.299999999999962</c:v>
+                  <c:v>#VALUE!</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>16.399999999999963</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>#VALUE!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2255,11 +2269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="128197032"/>
-        <c:axId val="222934840"/>
+        <c:axId val="390792248"/>
+        <c:axId val="390792640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128197032"/>
+        <c:axId val="390792248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222934840"/>
+        <c:crossAx val="390792640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2324,7 +2338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222934840"/>
+        <c:axId val="390792640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,7 +2395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128197032"/>
+        <c:crossAx val="390792248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3511,8 +3525,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,7 +3552,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>42964.90470590278</v>
+        <v>43063.638130092593</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
@@ -3573,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="75">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -3602,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="76">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="20">
         <v>2</v>
@@ -3654,7 +3668,8 @@
         <v>65</v>
       </c>
       <c r="C7" s="76">
-        <v>150000</v>
+        <f>80*60*60</f>
+        <v>288000</v>
       </c>
       <c r="D7" s="22">
         <v>4</v>
@@ -3684,7 +3699,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="77">
-        <v>4.1500000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D9" s="21">
         <v>6</v>
@@ -3700,7 +3715,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="78">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="22">
         <v>7</v>
@@ -3770,7 +3785,9 @@
       <c r="D14" s="20">
         <v>11</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="94" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3799,6 +3816,9 @@
       <c r="D16" s="20">
         <v>13</v>
       </c>
+      <c r="E16" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -3813,6 +3833,9 @@
       <c r="D17" s="21">
         <v>14</v>
       </c>
+      <c r="E17" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -3835,8 +3858,9 @@
       <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="76">
-        <v>1.075</v>
+      <c r="C19" s="78">
+        <f>C18+B33</f>
+        <v>1.0761684218432945</v>
       </c>
       <c r="D19" s="21">
         <v>16</v>
@@ -3864,7 +3888,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="21">
         <v>18</v>
@@ -3979,7 +4003,7 @@
       </c>
       <c r="B27" s="50">
         <f>(C9/B36)/(B33)</f>
-        <v>0.98743866331154584</v>
+        <v>0.93936901678009355</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -3998,7 +4022,7 @@
       </c>
       <c r="B29" s="50">
         <f>(B27*C5)/C4</f>
-        <v>0.98743866331154584</v>
+        <v>0.93936901678009355</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -4037,7 +4061,7 @@
       </c>
       <c r="B33" s="68">
         <f>(((B37^0.33)*(C9/B36)^2)/((B38^2)*9.81*B39))^0.3</f>
-        <v>7.1597831244665885E-2</v>
+        <v>7.6168421843294476E-2</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="55"/>
@@ -4082,7 +4106,9 @@
       </c>
       <c r="C37" s="55"/>
       <c r="D37" s="55"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="73" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
@@ -4100,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="B39" s="57">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C39" s="55"/>
       <c r="D39" s="55"/>
@@ -4127,7 +4153,7 @@
       </c>
       <c r="B41" s="59">
         <f>B33*B36/(B36+2*B33)</f>
-        <v>5.755707558894587E-2</v>
+        <v>6.0474280436329998E-2</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -4137,7 +4163,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B42" s="57">
         <f>'Input Data 3'!G20/1000</f>
@@ -4169,7 +4195,7 @@
       </c>
       <c r="B44" s="60">
         <f>B40*(B27^2)*(((B33/B37))^-0.33*B38^-2)</f>
-        <v>12.532115228665477</v>
+        <v>11.11239849637121</v>
       </c>
       <c r="C44" s="55"/>
       <c r="D44" s="55"/>
@@ -4183,11 +4209,11 @@
       </c>
       <c r="B45" s="69">
         <f>(B44/B40)^0.5</f>
-        <v>0.1119469304119835</v>
+        <v>0.10541536176654336</v>
       </c>
       <c r="C45" s="55">
         <f>(9.81*B33*B39)^0.5</f>
-        <v>0.11243996194050895</v>
+        <v>0.10586870771970716</v>
       </c>
       <c r="D45" s="55"/>
       <c r="E45" s="73" t="s">
@@ -4200,7 +4226,7 @@
       </c>
       <c r="B46" s="60">
         <f>B45^2/(9.814*B43*B42)</f>
-        <v>0.10659788647033051</v>
+        <v>9.4521808307326843E-2</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="55"/>
@@ -4214,7 +4240,7 @@
       </c>
       <c r="B47" s="60">
         <f>3.97*(B46-C13)^1.5</f>
-        <v>8.4161930072731622E-2</v>
+        <v>6.5065429749147072E-2</v>
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="5" t="s">
@@ -4227,7 +4253,7 @@
       </c>
       <c r="B48" s="61">
         <f>B47*(B41*9.841*B42)^0.5*B42</f>
-        <v>3.9183510621514751E-5</v>
+        <v>3.1050882989893275E-5</v>
       </c>
       <c r="D48" s="55"/>
       <c r="E48" s="5" t="s">
@@ -4240,7 +4266,7 @@
       </c>
       <c r="B49" s="74">
         <f>B48*C20*60</f>
-        <v>6.2301781888208456</v>
+        <v>4.9370903953930307</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -4296,7 +4322,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>42964.90470590278</v>
+        <v>43063.638130092593</v>
       </c>
       <c r="C2" s="2"/>
       <c r="G2" s="5"/>
@@ -4365,7 +4391,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>'Input Data 1'!C4</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B6" s="53">
         <v>0.61599999999999999</v>
@@ -4375,7 +4401,7 @@
       </c>
       <c r="D6" s="1">
         <f>D5+((A6-A5)*C6)</f>
-        <v>1.0015000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="O6"/>
       <c r="P6"/>
@@ -4386,7 +4412,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>IF(A6+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A6+'Input Data 1'!C$4,"stop")</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B7" s="53">
         <v>0.61199999999999999</v>
@@ -4396,7 +4422,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ref="D7:D56" si="0">D6+((A7-A6)*C7)</f>
-        <v>1.0030000000000001</v>
+        <v>1.0059999999999998</v>
       </c>
       <c r="E7" s="70"/>
       <c r="O7"/>
@@ -4408,7 +4434,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>IF(A7+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A7+'Input Data 1'!C$4,"stop")</f>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B8" s="53">
         <v>0.60799999999999998</v>
@@ -4418,7 +4444,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1.0045000000000002</v>
+        <v>1.0089999999999997</v>
       </c>
       <c r="E8" s="70"/>
       <c r="O8"/>
@@ -4430,7 +4456,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>IF(A8+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A8+'Input Data 1'!C$4,"stop")</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="53">
         <v>0.60399999999999998</v>
@@ -4440,7 +4466,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1.0060000000000002</v>
+        <v>1.0119999999999996</v>
       </c>
       <c r="E9" s="70"/>
       <c r="O9"/>
@@ -4452,7 +4478,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>IF(A9+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A9+'Input Data 1'!C$4,"stop")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="53">
         <v>0.6</v>
@@ -4462,7 +4488,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1.0075000000000003</v>
+        <v>1.0149999999999995</v>
       </c>
       <c r="E10" s="70"/>
       <c r="O10"/>
@@ -4474,7 +4500,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>IF(A10+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A10+'Input Data 1'!C$4,"stop")</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B11" s="53">
         <v>0.58256410256410296</v>
@@ -4484,7 +4510,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0090000000000003</v>
+        <v>1.0179999999999993</v>
       </c>
       <c r="E11" s="70"/>
       <c r="O11"/>
@@ -4496,7 +4522,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>IF(A11+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A11+'Input Data 1'!C$4,"stop")</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="B12" s="53">
         <v>0.56512820512820494</v>
@@ -4506,7 +4532,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0105000000000004</v>
+        <v>1.0209999999999992</v>
       </c>
       <c r="E12" s="70"/>
       <c r="O12"/>
@@ -4518,7 +4544,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>IF(A12+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A12+'Input Data 1'!C$4,"stop")</f>
-        <v>0.79999999999999993</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="B13" s="53">
         <v>0.54769230769230792</v>
@@ -4528,7 +4554,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0120000000000005</v>
+        <v>1.0239999999999991</v>
       </c>
       <c r="E13" s="70"/>
       <c r="O13"/>
@@ -4540,7 +4566,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>IF(A13+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A13+'Input Data 1'!C$4,"stop")</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="B14" s="53">
         <v>0.53025641025641002</v>
@@ -4550,7 +4576,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>1.0135000000000005</v>
+        <v>1.026999999999999</v>
       </c>
       <c r="E14" s="70"/>
       <c r="O14"/>
@@ -4562,7 +4588,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>IF(A14+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A14+'Input Data 1'!C$4,"stop")</f>
-        <v>0.99999999999999989</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="B15" s="53">
         <v>0.512820512820513</v>
@@ -4572,7 +4598,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0150000000000006</v>
+        <v>1.0299999999999989</v>
       </c>
       <c r="E15" s="70"/>
       <c r="O15"/>
@@ -4584,7 +4610,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>IF(A15+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A15+'Input Data 1'!C$4,"stop")</f>
-        <v>1.0999999999999999</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="B16" s="53">
         <v>0.49538461538461503</v>
@@ -4594,7 +4620,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>1.0165000000000006</v>
+        <v>1.0329999999999988</v>
       </c>
       <c r="E16" s="70"/>
       <c r="O16"/>
@@ -4606,7 +4632,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>IF(A16+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A16+'Input Data 1'!C$4,"stop")</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="B17" s="54">
         <v>0.47794871794871802</v>
@@ -4616,7 +4642,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1.0180000000000007</v>
+        <v>1.0359999999999987</v>
       </c>
       <c r="E17" s="70"/>
       <c r="O17"/>
@@ -4628,7 +4654,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>IF(A17+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A17+'Input Data 1'!C$4,"stop")</f>
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="B18" s="54">
         <v>0.460512820512821</v>
@@ -4638,7 +4664,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>1.0195000000000007</v>
+        <v>1.0389999999999988</v>
       </c>
       <c r="E18" s="70"/>
       <c r="O18"/>
@@ -4650,7 +4676,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>IF(A18+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A18+'Input Data 1'!C$4,"stop")</f>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B19" s="54">
         <v>0.44307692307692298</v>
@@ -4660,7 +4686,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1.0210000000000008</v>
+        <v>1.0419999999999989</v>
       </c>
       <c r="E19" s="70"/>
       <c r="O19"/>
@@ -4672,7 +4698,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>IF(A19+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A19+'Input Data 1'!C$4,"stop")</f>
-        <v>1.5000000000000002</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="B20" s="54">
         <v>0.43180672268907605</v>
@@ -4682,7 +4708,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0225000000000009</v>
+        <v>1.044999999999999</v>
       </c>
       <c r="E20" s="70"/>
       <c r="O20"/>
@@ -4694,7 +4720,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>IF(A20+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A20+'Input Data 1'!C$4,"stop")</f>
-        <v>1.6000000000000003</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="B21" s="54">
         <v>0.439033613445378</v>
@@ -4704,7 +4730,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>1.0240000000000009</v>
+        <v>1.0479999999999992</v>
       </c>
       <c r="E21" s="70"/>
       <c r="O21"/>
@@ -4716,7 +4742,7 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>IF(A21+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A21+'Input Data 1'!C$4,"stop")</f>
-        <v>1.7000000000000004</v>
+        <v>3.4000000000000008</v>
       </c>
       <c r="B22" s="54">
         <v>0.44626050420168101</v>
@@ -4726,7 +4752,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>1.025500000000001</v>
+        <v>1.0509999999999993</v>
       </c>
       <c r="E22" s="70"/>
       <c r="O22"/>
@@ -4738,7 +4764,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>IF(A22+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A22+'Input Data 1'!C$4,"stop")</f>
-        <v>1.8000000000000005</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="B23" s="54">
         <v>0.45348739495798296</v>
@@ -4748,7 +4774,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>1.027000000000001</v>
+        <v>1.0539999999999994</v>
       </c>
       <c r="E23" s="70"/>
       <c r="O23"/>
@@ -4760,7 +4786,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>IF(A23+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A23+'Input Data 1'!C$4,"stop")</f>
-        <v>1.9000000000000006</v>
+        <v>3.8000000000000012</v>
       </c>
       <c r="B24" s="54">
         <v>0.46071428571428602</v>
@@ -4770,7 +4796,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>1.0285000000000011</v>
+        <v>1.0569999999999995</v>
       </c>
       <c r="E24" s="70"/>
       <c r="O24"/>
@@ -4782,7 +4808,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>IF(A24+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A24+'Input Data 1'!C$4,"stop")</f>
-        <v>2.0000000000000004</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="B25" s="54">
         <v>0.46794117647058803</v>
@@ -4792,7 +4818,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>1.0300000000000011</v>
+        <v>1.0599999999999994</v>
       </c>
       <c r="E25" s="70"/>
       <c r="O25"/>
@@ -4804,7 +4830,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>IF(A25+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A25+'Input Data 1'!C$4,"stop")</f>
-        <v>2.1000000000000005</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="B26" s="54">
         <v>0.47516806722689103</v>
@@ -4814,7 +4840,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>1.0315000000000012</v>
+        <v>1.0629999999999993</v>
       </c>
       <c r="E26" s="70"/>
       <c r="O26"/>
@@ -4826,7 +4852,7 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>IF(A26+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A26+'Input Data 1'!C$4,"stop")</f>
-        <v>2.2000000000000006</v>
+        <v>4.4000000000000012</v>
       </c>
       <c r="B27" s="54">
         <v>0.48239495798319304</v>
@@ -4836,7 +4862,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>1.0330000000000013</v>
+        <v>1.0659999999999994</v>
       </c>
       <c r="E27" s="70"/>
       <c r="O27"/>
@@ -4848,7 +4874,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>IF(A27+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A27+'Input Data 1'!C$4,"stop")</f>
-        <v>2.3000000000000007</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="B28" s="54">
         <v>0.48962184873949599</v>
@@ -4858,7 +4884,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>1.0345000000000013</v>
+        <v>1.0689999999999995</v>
       </c>
       <c r="E28" s="70"/>
       <c r="O28"/>
@@ -4870,7 +4896,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>IF(A28+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A28+'Input Data 1'!C$4,"stop")</f>
-        <v>2.4000000000000008</v>
+        <v>4.8000000000000016</v>
       </c>
       <c r="B29" s="54">
         <v>0.496848739495798</v>
@@ -4880,7 +4906,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>1.0360000000000014</v>
+        <v>1.0719999999999996</v>
       </c>
       <c r="E29" s="70"/>
       <c r="O29"/>
@@ -4892,7 +4918,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>IF(A29+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A29+'Input Data 1'!C$4,"stop")</f>
-        <v>2.5000000000000009</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="B30" s="54">
         <v>0.504075630252101</v>
@@ -4902,7 +4928,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>1.0375000000000014</v>
+        <v>1.0749999999999997</v>
       </c>
       <c r="E30" s="70"/>
       <c r="O30"/>
@@ -4914,7 +4940,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>IF(A30+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A30+'Input Data 1'!C$4,"stop")</f>
-        <v>2.600000000000001</v>
+        <v>5.200000000000002</v>
       </c>
       <c r="B31" s="54">
         <v>0.51130252100840301</v>
@@ -4924,7 +4950,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1.0390000000000015</v>
+        <v>1.0779999999999998</v>
       </c>
       <c r="E31" s="70"/>
       <c r="O31"/>
@@ -4936,7 +4962,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>IF(A31+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A31+'Input Data 1'!C$4,"stop")</f>
-        <v>2.7000000000000011</v>
+        <v>5.4000000000000021</v>
       </c>
       <c r="B32" s="54">
         <v>0.51852941176470602</v>
@@ -4946,7 +4972,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>1.0405000000000015</v>
+        <v>1.081</v>
       </c>
       <c r="E32" s="70"/>
       <c r="O32"/>
@@ -4958,7 +4984,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>IF(A32+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A32+'Input Data 1'!C$4,"stop")</f>
-        <v>2.8000000000000012</v>
+        <v>5.6000000000000023</v>
       </c>
       <c r="B33" s="54">
         <v>0.52575630252100802</v>
@@ -4968,7 +4994,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>1.0420000000000016</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="E33" s="70"/>
       <c r="O33"/>
@@ -4980,7 +5006,7 @@
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>IF(A33+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A33+'Input Data 1'!C$4,"stop")</f>
-        <v>2.9000000000000012</v>
+        <v>5.8000000000000025</v>
       </c>
       <c r="B34" s="54">
         <v>0.53298319327731103</v>
@@ -4990,7 +5016,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>1.0435000000000016</v>
+        <v>1.0870000000000002</v>
       </c>
       <c r="E34" s="70"/>
       <c r="O34"/>
@@ -5002,7 +5028,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>IF(A34+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A34+'Input Data 1'!C$4,"stop")</f>
-        <v>3.0000000000000013</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="B35" s="54">
         <v>0.54021008403361304</v>
@@ -5012,7 +5038,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>1.0450000000000017</v>
+        <v>1.0900000000000003</v>
       </c>
       <c r="E35" s="70"/>
       <c r="O35"/>
@@ -5024,7 +5050,7 @@
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>IF(A35+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A35+'Input Data 1'!C$4,"stop")</f>
-        <v>3.1000000000000014</v>
+        <v>6.2000000000000028</v>
       </c>
       <c r="B36" s="54">
         <v>0.54743697478991604</v>
@@ -5034,7 +5060,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>1.0465000000000018</v>
+        <v>1.0930000000000004</v>
       </c>
       <c r="E36" s="70"/>
       <c r="O36"/>
@@ -5046,7 +5072,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>IF(A36+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A36+'Input Data 1'!C$4,"stop")</f>
-        <v>3.2000000000000015</v>
+        <v>6.400000000000003</v>
       </c>
       <c r="B37" s="54">
         <v>0.55466386554621794</v>
@@ -5056,7 +5082,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>1.0480000000000018</v>
+        <v>1.0960000000000005</v>
       </c>
       <c r="E37" s="70"/>
       <c r="O37"/>
@@ -5068,7 +5094,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>IF(A37+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A37+'Input Data 1'!C$4,"stop")</f>
-        <v>3.3000000000000016</v>
+        <v>6.6000000000000032</v>
       </c>
       <c r="B38" s="54">
         <v>0.56189075630252105</v>
@@ -5078,7 +5104,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>1.0495000000000019</v>
+        <v>1.0990000000000006</v>
       </c>
       <c r="E38" s="70"/>
       <c r="O38"/>
@@ -5090,7 +5116,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>IF(A38+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A38+'Input Data 1'!C$4,"stop")</f>
-        <v>3.4000000000000017</v>
+        <v>6.8000000000000034</v>
       </c>
       <c r="B39" s="54">
         <v>0.56911764705882395</v>
@@ -5100,7 +5126,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>1.0510000000000019</v>
+        <v>1.1020000000000008</v>
       </c>
       <c r="E39" s="70"/>
       <c r="O39"/>
@@ -5112,7 +5138,7 @@
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>IF(A39+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A39+'Input Data 1'!C$4,"stop")</f>
-        <v>3.5000000000000018</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="B40" s="54">
         <v>0.57634453781512607</v>
@@ -5122,7 +5148,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>1.052500000000002</v>
+        <v>1.1050000000000009</v>
       </c>
       <c r="E40" s="70"/>
       <c r="O40"/>
@@ -5134,7 +5160,7 @@
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>IF(A40+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A40+'Input Data 1'!C$4,"stop")</f>
-        <v>3.6000000000000019</v>
+        <v>7.2000000000000037</v>
       </c>
       <c r="B41" s="54">
         <v>0.58357142857142896</v>
@@ -5144,7 +5170,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>1.054000000000002</v>
+        <v>1.108000000000001</v>
       </c>
       <c r="E41" s="70"/>
       <c r="O41"/>
@@ -5156,7 +5182,7 @@
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>IF(A41+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A41+'Input Data 1'!C$4,"stop")</f>
-        <v>3.700000000000002</v>
+        <v>7.4000000000000039</v>
       </c>
       <c r="B42" s="54">
         <v>0.59079831932773097</v>
@@ -5166,7 +5192,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>1.0555000000000021</v>
+        <v>1.1110000000000011</v>
       </c>
       <c r="E42" s="70"/>
       <c r="O42"/>
@@ -5178,7 +5204,7 @@
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>IF(A42+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A42+'Input Data 1'!C$4,"stop")</f>
-        <v>3.800000000000002</v>
+        <v>7.6000000000000041</v>
       </c>
       <c r="B43" s="54">
         <v>0.59802521008403398</v>
@@ -5188,7 +5214,7 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>1.0570000000000022</v>
+        <v>1.1140000000000012</v>
       </c>
       <c r="E43" s="70"/>
       <c r="O43"/>
@@ -5200,7 +5226,7 @@
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>IF(A43+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A43+'Input Data 1'!C$4,"stop")</f>
-        <v>3.9000000000000021</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="B44" s="54">
         <v>0.60525210084033598</v>
@@ -5210,7 +5236,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>1.0585000000000022</v>
+        <v>1.1170000000000013</v>
       </c>
       <c r="E44" s="70"/>
       <c r="O44"/>
@@ -5222,7 +5248,7 @@
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>IF(A44+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A44+'Input Data 1'!C$4,"stop")</f>
-        <v>4.0000000000000018</v>
+        <v>8.0000000000000036</v>
       </c>
       <c r="B45" s="54">
         <v>0.6124789915966391</v>
@@ -5232,7 +5258,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>1.0600000000000023</v>
+        <v>1.1200000000000012</v>
       </c>
       <c r="E45" s="70"/>
       <c r="O45"/>
@@ -5244,7 +5270,7 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>IF(A45+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A45+'Input Data 1'!C$4,"stop")</f>
-        <v>4.1000000000000014</v>
+        <v>8.2000000000000028</v>
       </c>
       <c r="B46" s="54">
         <v>0.619705882352941</v>
@@ -5254,7 +5280,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>1.0615000000000023</v>
+        <v>1.1230000000000011</v>
       </c>
       <c r="E46" s="70"/>
       <c r="O46"/>
@@ -5266,7 +5292,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>IF(A46+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A46+'Input Data 1'!C$4,"stop")</f>
-        <v>4.2000000000000011</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="B47" s="54">
         <v>0.626932773109244</v>
@@ -5276,7 +5302,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>1.0630000000000024</v>
+        <v>1.126000000000001</v>
       </c>
       <c r="E47" s="70"/>
       <c r="O47"/>
@@ -5288,7 +5314,7 @@
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>IF(A47+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A47+'Input Data 1'!C$4,"stop")</f>
-        <v>4.3000000000000007</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="B48" s="54">
         <v>0.63415966386554601</v>
@@ -5298,7 +5324,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>1.0645000000000024</v>
+        <v>1.1290000000000009</v>
       </c>
       <c r="E48" s="70"/>
       <c r="O48"/>
@@ -5310,7 +5336,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>IF(A48+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A48+'Input Data 1'!C$4,"stop")</f>
-        <v>4.4000000000000004</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B49" s="54">
         <v>0.64138655462184901</v>
@@ -5320,7 +5346,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>1.0660000000000025</v>
+        <v>1.1320000000000008</v>
       </c>
       <c r="E49" s="70"/>
       <c r="O49"/>
@@ -5332,7 +5358,7 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>IF(A49+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A49+'Input Data 1'!C$4,"stop")</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="B50" s="54">
         <v>0.64066787003610104</v>
@@ -5342,7 +5368,7 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>1.0675000000000026</v>
+        <v>1.1350000000000007</v>
       </c>
       <c r="E50" s="70"/>
       <c r="O50"/>
@@ -5354,7 +5380,7 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>IF(A50+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A50+'Input Data 1'!C$4,"stop")</f>
-        <v>4.5999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B51" s="54">
         <v>0.63200361010830297</v>
@@ -5364,7 +5390,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>1.0690000000000026</v>
+        <v>1.1380000000000006</v>
       </c>
       <c r="E51" s="70"/>
       <c r="O51"/>
@@ -5376,7 +5402,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>IF(A51+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A51+'Input Data 1'!C$4,"stop")</f>
-        <v>4.6999999999999993</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="B52" s="54">
         <v>0.62333935018050501</v>
@@ -5386,7 +5412,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>1.0705000000000027</v>
+        <v>1.1410000000000005</v>
       </c>
       <c r="E52" s="70"/>
       <c r="O52"/>
@@ -5398,7 +5424,7 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>IF(A52+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A52+'Input Data 1'!C$4,"stop")</f>
-        <v>4.7999999999999989</v>
+        <v>9.5999999999999979</v>
       </c>
       <c r="B53" s="54">
         <v>0.61467509025270795</v>
@@ -5408,7 +5434,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>1.0720000000000027</v>
+        <v>1.1440000000000003</v>
       </c>
       <c r="E53" s="70"/>
       <c r="O53"/>
@@ -5420,7 +5446,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>IF(A53+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A53+'Input Data 1'!C$4,"stop")</f>
-        <v>4.8999999999999986</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="B54" s="54">
         <v>0.60601083032490999</v>
@@ -5430,7 +5456,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>1.0735000000000028</v>
+        <v>1.1470000000000002</v>
       </c>
       <c r="E54" s="70"/>
       <c r="O54"/>
@@ -5442,7 +5468,7 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>IF(A54+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A54+'Input Data 1'!C$4,"stop")</f>
-        <v>4.9999999999999982</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="B55" s="54">
         <v>0.59734657039711203</v>
@@ -5452,7 +5478,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>1.0750000000000028</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="E55" s="70"/>
       <c r="O55"/>
@@ -5464,7 +5490,7 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>IF(A55+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A55+'Input Data 1'!C$4,"stop")</f>
-        <v>5.0999999999999979</v>
+        <v>10.199999999999996</v>
       </c>
       <c r="B56" s="54">
         <v>0.58868231046931396</v>
@@ -5474,7 +5500,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>1.0765000000000029</v>
+        <v>1.153</v>
       </c>
       <c r="E56" s="70"/>
       <c r="O56"/>
@@ -5486,7 +5512,7 @@
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>IF(A56+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A56+'Input Data 1'!C$4,"stop")</f>
-        <v>5.1999999999999975</v>
+        <v>10.399999999999995</v>
       </c>
       <c r="B57" s="54">
         <v>0.58001805054151601</v>
@@ -5496,14 +5522,14 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" ref="D57:D120" si="1">D56+((A57-A56)*C57)</f>
-        <v>1.078000000000003</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="E57" s="70"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>IF(A57+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A57+'Input Data 1'!C$4,"stop")</f>
-        <v>5.2999999999999972</v>
+        <v>10.599999999999994</v>
       </c>
       <c r="B58" s="54">
         <v>0.57135379061371894</v>
@@ -5513,14 +5539,14 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="1"/>
-        <v>1.079500000000003</v>
+        <v>1.1589999999999998</v>
       </c>
       <c r="E58" s="70"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>IF(A58+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A58+'Input Data 1'!C$4,"stop")</f>
-        <v>5.3999999999999968</v>
+        <v>10.799999999999994</v>
       </c>
       <c r="B59" s="54">
         <v>0.56268953068592098</v>
@@ -5530,14 +5556,14 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="1"/>
-        <v>1.0810000000000031</v>
+        <v>1.1619999999999997</v>
       </c>
       <c r="E59" s="70"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>IF(A59+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A59+'Input Data 1'!C$4,"stop")</f>
-        <v>5.4999999999999964</v>
+        <v>10.999999999999993</v>
       </c>
       <c r="B60" s="54">
         <v>0.55402527075812302</v>
@@ -5547,14 +5573,14 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="1"/>
-        <v>1.0825000000000031</v>
+        <v>1.1649999999999996</v>
       </c>
       <c r="E60" s="70"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>IF(A60+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A60+'Input Data 1'!C$4,"stop")</f>
-        <v>5.5999999999999961</v>
+        <v>11.199999999999992</v>
       </c>
       <c r="B61" s="54">
         <v>0.54536101083032495</v>
@@ -5564,14 +5590,14 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="1"/>
-        <v>1.0840000000000032</v>
+        <v>1.1679999999999995</v>
       </c>
       <c r="E61" s="70"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>IF(A61+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A61+'Input Data 1'!C$4,"stop")</f>
-        <v>5.6999999999999957</v>
+        <v>11.399999999999991</v>
       </c>
       <c r="B62" s="54">
         <v>0.536696750902527</v>
@@ -5581,14 +5607,14 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="1"/>
-        <v>1.0855000000000032</v>
+        <v>1.1709999999999994</v>
       </c>
       <c r="E62" s="70"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>IF(A62+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A62+'Input Data 1'!C$4,"stop")</f>
-        <v>5.7999999999999954</v>
+        <v>11.599999999999991</v>
       </c>
       <c r="B63" s="54">
         <v>0.52803249097472893</v>
@@ -5598,14 +5624,14 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="1"/>
-        <v>1.0870000000000033</v>
+        <v>1.1739999999999993</v>
       </c>
       <c r="E63" s="70"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>IF(A63+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A63+'Input Data 1'!C$4,"stop")</f>
-        <v>5.899999999999995</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="B64" s="54">
         <v>0.56762295081967207</v>
@@ -5615,14 +5641,14 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="1"/>
-        <v>1.0885000000000034</v>
+        <v>1.1769999999999992</v>
       </c>
       <c r="E64" s="70"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>IF(A64+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A64+'Input Data 1'!C$4,"stop")</f>
-        <v>5.9999999999999947</v>
+        <v>11.999999999999989</v>
       </c>
       <c r="B65" s="54">
         <v>0.63319672131147497</v>
@@ -5632,14 +5658,14 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="1"/>
-        <v>1.0900000000000034</v>
+        <v>1.179999999999999</v>
       </c>
       <c r="E65" s="70"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>IF(A65+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A65+'Input Data 1'!C$4,"stop")</f>
-        <v>6.0999999999999943</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="B66" s="54">
         <v>0.69877049180327899</v>
@@ -5649,14 +5675,14 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="1"/>
-        <v>1.0915000000000035</v>
+        <v>1.1829999999999989</v>
       </c>
       <c r="E66" s="70"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>IF(A66+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A66+'Input Data 1'!C$4,"stop")</f>
-        <v>6.199999999999994</v>
+        <v>12.399999999999988</v>
       </c>
       <c r="B67" s="54">
         <v>0.73250000000000004</v>
@@ -5666,14 +5692,14 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="1"/>
-        <v>1.0930000000000035</v>
+        <v>1.1859999999999988</v>
       </c>
       <c r="E67" s="70"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>IF(A67+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A67+'Input Data 1'!C$4,"stop")</f>
-        <v>6.2999999999999936</v>
+        <v>12.599999999999987</v>
       </c>
       <c r="B68" s="54">
         <v>0.745</v>
@@ -5683,14 +5709,14 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="1"/>
-        <v>1.0945000000000036</v>
+        <v>1.1889999999999987</v>
       </c>
       <c r="E68" s="70"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>IF(A68+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A68+'Input Data 1'!C$4,"stop")</f>
-        <v>6.3999999999999932</v>
+        <v>12.799999999999986</v>
       </c>
       <c r="B69" s="54">
         <v>0.75749999999999995</v>
@@ -5700,14 +5726,14 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>1.0960000000000036</v>
+        <v>1.1919999999999986</v>
       </c>
       <c r="E69" s="70"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>IF(A69+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A69+'Input Data 1'!C$4,"stop")</f>
-        <v>6.4999999999999929</v>
+        <v>12.999999999999986</v>
       </c>
       <c r="B70" s="54">
         <v>0.77</v>
@@ -5717,14 +5743,14 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>1.0975000000000037</v>
+        <v>1.1949999999999985</v>
       </c>
       <c r="E70" s="70"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>IF(A70+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A70+'Input Data 1'!C$4,"stop")</f>
-        <v>6.5999999999999925</v>
+        <v>13.199999999999985</v>
       </c>
       <c r="B71" s="54">
         <v>0.769585365853659</v>
@@ -5734,14 +5760,14 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>1.0990000000000038</v>
+        <v>1.1979999999999984</v>
       </c>
       <c r="E71" s="70"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>IF(A71+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A71+'Input Data 1'!C$4,"stop")</f>
-        <v>6.6999999999999922</v>
+        <v>13.399999999999984</v>
       </c>
       <c r="B72" s="54">
         <v>0.760560975609756</v>
@@ -5751,14 +5777,14 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>1.1005000000000038</v>
+        <v>1.2009999999999983</v>
       </c>
       <c r="E72" s="70"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>IF(A72+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A72+'Input Data 1'!C$4,"stop")</f>
-        <v>6.7999999999999918</v>
+        <v>13.599999999999984</v>
       </c>
       <c r="B73" s="54">
         <v>0.75153658536585399</v>
@@ -5768,14 +5794,14 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>1.1020000000000039</v>
+        <v>1.2039999999999982</v>
       </c>
       <c r="E73" s="70"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>IF(A73+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A73+'Input Data 1'!C$4,"stop")</f>
-        <v>6.8999999999999915</v>
+        <v>13.799999999999983</v>
       </c>
       <c r="B74" s="54">
         <v>0.74251219512195099</v>
@@ -5785,14 +5811,14 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>1.1035000000000039</v>
+        <v>1.2069999999999981</v>
       </c>
       <c r="E74" s="70"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>IF(A74+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A74+'Input Data 1'!C$4,"stop")</f>
-        <v>6.9999999999999911</v>
+        <v>13.999999999999982</v>
       </c>
       <c r="B75" s="54">
         <v>0.72485714285714298</v>
@@ -5802,14 +5828,14 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>1.105000000000004</v>
+        <v>1.209999999999998</v>
       </c>
       <c r="E75" s="70"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>IF(A75+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A75+'Input Data 1'!C$4,"stop")</f>
-        <v>7.0999999999999908</v>
+        <v>14.199999999999982</v>
       </c>
       <c r="B76" s="54">
         <v>0.69857142857142907</v>
@@ -5819,14 +5845,14 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>1.106500000000004</v>
+        <v>1.2129999999999979</v>
       </c>
       <c r="E76" s="70"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>IF(A76+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A76+'Input Data 1'!C$4,"stop")</f>
-        <v>7.1999999999999904</v>
+        <v>14.399999999999981</v>
       </c>
       <c r="B77" s="54">
         <v>0.67228571428571404</v>
@@ -5836,14 +5862,14 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>1.1080000000000041</v>
+        <v>1.2159999999999977</v>
       </c>
       <c r="E77" s="70"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>IF(A77+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A77+'Input Data 1'!C$4,"stop")</f>
-        <v>7.2999999999999901</v>
+        <v>14.59999999999998</v>
       </c>
       <c r="B78" s="54">
         <v>0.64600000000000002</v>
@@ -5853,14 +5879,14 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>1.1095000000000041</v>
+        <v>1.2189999999999976</v>
       </c>
       <c r="E78" s="70"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>IF(A78+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A78+'Input Data 1'!C$4,"stop")</f>
-        <v>7.3999999999999897</v>
+        <v>14.799999999999979</v>
       </c>
       <c r="B79" s="54">
         <v>0.619714285714286</v>
@@ -5870,14 +5896,14 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>1.1110000000000042</v>
+        <v>1.2219999999999975</v>
       </c>
       <c r="E79" s="70"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>IF(A79+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A79+'Input Data 1'!C$4,"stop")</f>
-        <v>7.4999999999999893</v>
+        <v>14.999999999999979</v>
       </c>
       <c r="B80" s="54">
         <v>0.59342857142857097</v>
@@ -5887,14 +5913,14 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>1.1125000000000043</v>
+        <v>1.2249999999999974</v>
       </c>
       <c r="E80" s="70"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>IF(A80+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A80+'Input Data 1'!C$4,"stop")</f>
-        <v>7.599999999999989</v>
+        <v>15.199999999999978</v>
       </c>
       <c r="B81" s="54">
         <v>0.56714285714285695</v>
@@ -5904,14 +5930,14 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>1.1140000000000043</v>
+        <v>1.2279999999999973</v>
       </c>
       <c r="E81" s="70"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>IF(A81+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A81+'Input Data 1'!C$4,"stop")</f>
-        <v>7.6999999999999886</v>
+        <v>15.399999999999977</v>
       </c>
       <c r="B82" s="54">
         <v>0.54085714285714304</v>
@@ -5921,14 +5947,14 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>1.1155000000000044</v>
+        <v>1.2309999999999972</v>
       </c>
       <c r="E82" s="70"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>IF(A82+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A82+'Input Data 1'!C$4,"stop")</f>
-        <v>7.7999999999999883</v>
+        <v>15.599999999999977</v>
       </c>
       <c r="B83" s="54">
         <v>0.51457142857142901</v>
@@ -5938,14 +5964,14 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
-        <v>1.1170000000000044</v>
+        <v>1.2339999999999971</v>
       </c>
       <c r="E83" s="70"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>IF(A83+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A83+'Input Data 1'!C$4,"stop")</f>
-        <v>7.8999999999999879</v>
+        <v>15.799999999999976</v>
       </c>
       <c r="B84" s="54">
         <v>0.48828571428571399</v>
@@ -5955,14 +5981,14 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
-        <v>1.1185000000000045</v>
+        <v>1.236999999999997</v>
       </c>
       <c r="E84" s="70"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>IF(A84+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A84+'Input Data 1'!C$4,"stop")</f>
-        <v>7.9999999999999876</v>
+        <v>15.999999999999975</v>
       </c>
       <c r="B85" s="54">
         <v>0.46200000000000002</v>
@@ -5972,14 +5998,14 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
-        <v>1.1200000000000045</v>
+        <v>1.2399999999999969</v>
       </c>
       <c r="E85" s="70"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>IF(A85+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A85+'Input Data 1'!C$4,"stop")</f>
-        <v>8.0999999999999872</v>
+        <v>16.199999999999974</v>
       </c>
       <c r="B86" s="54">
         <v>0.435714285714286</v>
@@ -5989,14 +6015,14 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
-        <v>1.1215000000000046</v>
+        <v>1.2429999999999968</v>
       </c>
       <c r="E86" s="70"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f>IF(A86+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A86+'Input Data 1'!C$4,"stop")</f>
-        <v>8.1999999999999869</v>
+        <v>16.399999999999974</v>
       </c>
       <c r="B87" s="54">
         <v>0.40942857142857098</v>
@@ -6006,14 +6032,14 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
-        <v>1.1230000000000047</v>
+        <v>1.2459999999999967</v>
       </c>
       <c r="E87" s="70"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="str">
         <f>IF(A87+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A87+'Input Data 1'!C$4,"stop")</f>
-        <v>8.2999999999999865</v>
+        <v>stop</v>
       </c>
       <c r="B88" s="54">
         <v>0.38314285714285701</v>
@@ -6021,16 +6047,16 @@
       <c r="C88" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1245000000000047</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E88" s="70"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="e">
         <f>IF(A88+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A88+'Input Data 1'!C$4,"stop")</f>
-        <v>8.3999999999999861</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B89" s="54">
         <v>0.37398760330578501</v>
@@ -6038,16 +6064,16 @@
       <c r="C89" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1260000000000048</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E89" s="70"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="e">
         <f>IF(A89+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A89+'Input Data 1'!C$4,"stop")</f>
-        <v>8.4999999999999858</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B90" s="54">
         <v>0.38196280991735498</v>
@@ -6055,16 +6081,16 @@
       <c r="C90" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1275000000000048</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E90" s="70"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="e">
         <f>IF(A90+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A90+'Input Data 1'!C$4,"stop")</f>
-        <v>8.5999999999999854</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B91" s="54">
         <v>0.38993801652892601</v>
@@ -6072,16 +6098,16 @@
       <c r="C91" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1290000000000049</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E91" s="70"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="e">
         <f>IF(A91+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A91+'Input Data 1'!C$4,"stop")</f>
-        <v>8.6999999999999851</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B92" s="54">
         <v>0.39791322314049599</v>
@@ -6089,16 +6115,16 @@
       <c r="C92" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1305000000000049</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E92" s="70"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="e">
         <f>IF(A92+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A92+'Input Data 1'!C$4,"stop")</f>
-        <v>8.7999999999999847</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B93" s="54">
         <v>0.40588842975206596</v>
@@ -6106,16 +6132,16 @@
       <c r="C93" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.132000000000005</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E93" s="70"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="e">
         <f>IF(A93+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A93+'Input Data 1'!C$4,"stop")</f>
-        <v>8.8999999999999844</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B94" s="54">
         <v>0.41386363636363599</v>
@@ -6123,16 +6149,16 @@
       <c r="C94" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1335000000000051</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E94" s="70"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="e">
         <f>IF(A94+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A94+'Input Data 1'!C$4,"stop")</f>
-        <v>8.999999999999984</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B95" s="54">
         <v>0.42183884297520702</v>
@@ -6140,16 +6166,16 @@
       <c r="C95" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1350000000000051</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E95" s="70"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="e">
         <f>IF(A95+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A95+'Input Data 1'!C$4,"stop")</f>
-        <v>9.0999999999999837</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B96" s="54">
         <v>0.42981404958677699</v>
@@ -6157,16 +6183,16 @@
       <c r="C96" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1365000000000052</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E96" s="70"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="e">
         <f>IF(A96+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A96+'Input Data 1'!C$4,"stop")</f>
-        <v>9.1999999999999833</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B97" s="54">
         <v>0.43778925619834702</v>
@@ -6174,16 +6200,16 @@
       <c r="C97" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1380000000000052</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E97" s="70"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="e">
         <f>IF(A97+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A97+'Input Data 1'!C$4,"stop")</f>
-        <v>9.2999999999999829</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B98" s="54">
         <v>0.44576446280991699</v>
@@ -6191,16 +6217,16 @@
       <c r="C98" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1395000000000053</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E98" s="70"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="e">
         <f>IF(A98+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A98+'Input Data 1'!C$4,"stop")</f>
-        <v>9.3999999999999826</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B99" s="54">
         <v>0.45373966942148797</v>
@@ -6208,16 +6234,16 @@
       <c r="C99" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1410000000000053</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E99" s="70"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="e">
         <f>IF(A99+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A99+'Input Data 1'!C$4,"stop")</f>
-        <v>9.4999999999999822</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B100" s="54">
         <v>0.461714876033058</v>
@@ -6225,16 +6251,16 @@
       <c r="C100" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1425000000000054</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E100" s="70"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="e">
         <f>IF(A100+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A100+'Input Data 1'!C$4,"stop")</f>
-        <v>9.5999999999999819</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B101" s="54">
         <v>0.46969008264462797</v>
@@ -6242,16 +6268,16 @@
       <c r="C101" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1440000000000055</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E101" s="70"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="e">
         <f>IF(A101+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A101+'Input Data 1'!C$4,"stop")</f>
-        <v>9.6999999999999815</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B102" s="54">
         <v>0.477665289256198</v>
@@ -6259,16 +6285,16 @@
       <c r="C102" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1455000000000055</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E102" s="70"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="e">
         <f>IF(A102+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A102+'Input Data 1'!C$4,"stop")</f>
-        <v>9.7999999999999812</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B103" s="54">
         <v>0.48564049586776903</v>
@@ -6276,16 +6302,16 @@
       <c r="C103" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1470000000000056</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E103" s="70"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="e">
         <f>IF(A103+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A103+'Input Data 1'!C$4,"stop")</f>
-        <v>9.8999999999999808</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B104" s="54">
         <v>0.493615702479339</v>
@@ -6293,16 +6319,16 @@
       <c r="C104" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1485000000000056</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E104" s="70"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="e">
         <f>IF(A104+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A104+'Input Data 1'!C$4,"stop")</f>
-        <v>9.9999999999999805</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B105" s="54">
         <v>0.50159090909090898</v>
@@ -6310,16 +6336,16 @@
       <c r="C105" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1500000000000057</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E105" s="70"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="e">
         <f>IF(A105+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A105+'Input Data 1'!C$4,"stop")</f>
-        <v>10.09999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B106" s="54">
         <v>0.50956611570247901</v>
@@ -6327,16 +6353,16 @@
       <c r="C106" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1515000000000057</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E106" s="70"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="e">
         <f>IF(A106+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A106+'Input Data 1'!C$4,"stop")</f>
-        <v>10.19999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B107" s="54">
         <v>0.51754132231405003</v>
@@ -6344,16 +6370,16 @@
       <c r="C107" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1530000000000058</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E107" s="70"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="e">
         <f>IF(A107+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A107+'Input Data 1'!C$4,"stop")</f>
-        <v>10.299999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B108" s="54">
         <v>0.52551652892562006</v>
@@ -6361,16 +6387,16 @@
       <c r="C108" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1545000000000059</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E108" s="70"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="e">
         <f>IF(A108+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A108+'Input Data 1'!C$4,"stop")</f>
-        <v>10.399999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B109" s="54">
         <v>0.53349173553719009</v>
@@ -6378,16 +6404,16 @@
       <c r="C109" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1560000000000059</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E109" s="70"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="e">
         <f>IF(A109+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A109+'Input Data 1'!C$4,"stop")</f>
-        <v>10.499999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B110" s="54">
         <v>0.54146694214876001</v>
@@ -6395,16 +6421,16 @@
       <c r="C110" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.157500000000006</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E110" s="70"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="e">
         <f>IF(A110+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A110+'Input Data 1'!C$4,"stop")</f>
-        <v>10.599999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B111" s="54">
         <v>0.54944214876033093</v>
@@ -6412,16 +6438,16 @@
       <c r="C111" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.159000000000006</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E111" s="70"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="e">
         <f>IF(A111+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A111+'Input Data 1'!C$4,"stop")</f>
-        <v>10.699999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B112" s="54">
         <v>0.55741735537190096</v>
@@ -6429,16 +6455,16 @@
       <c r="C112" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1605000000000061</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E112" s="70"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="e">
         <f>IF(A112+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A112+'Input Data 1'!C$4,"stop")</f>
-        <v>10.799999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B113" s="54">
         <v>0.56132000000000004</v>
@@ -6446,16 +6472,16 @@
       <c r="C113" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1620000000000061</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E113" s="70"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="e">
         <f>IF(A113+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A113+'Input Data 1'!C$4,"stop")</f>
-        <v>10.899999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B114" s="54">
         <v>0.55571999999999999</v>
@@ -6463,16 +6489,16 @@
       <c r="C114" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1635000000000062</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E114" s="70"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="e">
         <f>IF(A114+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A114+'Input Data 1'!C$4,"stop")</f>
-        <v>10.999999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B115" s="54">
         <v>0.55012000000000005</v>
@@ -6480,16 +6506,16 @@
       <c r="C115" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1650000000000063</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E115" s="70"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="e">
         <f>IF(A115+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A115+'Input Data 1'!C$4,"stop")</f>
-        <v>11.099999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B116" s="54">
         <v>0.54452</v>
@@ -6497,16 +6523,16 @@
       <c r="C116" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1665000000000063</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E116" s="70"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="e">
         <f>IF(A116+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A116+'Input Data 1'!C$4,"stop")</f>
-        <v>11.199999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B117" s="54">
         <v>0.53891999999999995</v>
@@ -6514,16 +6540,16 @@
       <c r="C117" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1680000000000064</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E117" s="70"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="e">
         <f>IF(A117+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A117+'Input Data 1'!C$4,"stop")</f>
-        <v>11.299999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B118" s="54">
         <v>0.53332000000000002</v>
@@ -6531,16 +6557,16 @@
       <c r="C118" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1695000000000064</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E118" s="70"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="e">
         <f>IF(A118+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A118+'Input Data 1'!C$4,"stop")</f>
-        <v>11.399999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B119" s="54">
         <v>0.52772000000000008</v>
@@ -6548,16 +6574,16 @@
       <c r="C119" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1710000000000065</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E119" s="70"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="e">
         <f>IF(A119+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A119+'Input Data 1'!C$4,"stop")</f>
-        <v>11.499999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B120" s="54">
         <v>0.52212000000000003</v>
@@ -6565,16 +6591,16 @@
       <c r="C120" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="1" t="e">
         <f t="shared" si="1"/>
-        <v>1.1725000000000065</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E120" s="70"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="e">
         <f>IF(A120+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A120+'Input Data 1'!C$4,"stop")</f>
-        <v>11.599999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B121" s="54">
         <v>0.51651999999999998</v>
@@ -6582,16 +6608,16 @@
       <c r="C121" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="1" t="e">
         <f t="shared" ref="D121:D156" si="2">D120+((A121-A120)*C121)</f>
-        <v>1.1740000000000066</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E121" s="70"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="e">
         <f>IF(A121+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A121+'Input Data 1'!C$4,"stop")</f>
-        <v>11.699999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B122" s="54">
         <v>0.51092000000000004</v>
@@ -6599,16 +6625,16 @@
       <c r="C122" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1755000000000067</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E122" s="70"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="e">
         <f>IF(A122+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A122+'Input Data 1'!C$4,"stop")</f>
-        <v>11.799999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B123" s="54">
         <v>0.50531999999999999</v>
@@ -6616,16 +6642,16 @@
       <c r="C123" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1770000000000067</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E123" s="70"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="e">
         <f>IF(A123+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A123+'Input Data 1'!C$4,"stop")</f>
-        <v>11.899999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B124" s="54">
         <v>0.49972000000000005</v>
@@ -6633,16 +6659,16 @@
       <c r="C124" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1785000000000068</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E124" s="70"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="e">
         <f>IF(A124+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A124+'Input Data 1'!C$4,"stop")</f>
-        <v>11.999999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B125" s="54">
         <v>0.49412</v>
@@ -6650,16 +6676,16 @@
       <c r="C125" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1800000000000068</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E125" s="70"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="e">
         <f>IF(A125+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A125+'Input Data 1'!C$4,"stop")</f>
-        <v>12.099999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B126" s="54">
         <v>0.48851999999999995</v>
@@ -6667,16 +6693,16 @@
       <c r="C126" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1815000000000069</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E126" s="70"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="e">
         <f>IF(A126+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A126+'Input Data 1'!C$4,"stop")</f>
-        <v>12.199999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B127" s="54">
         <v>0.48292000000000002</v>
@@ -6684,16 +6710,16 @@
       <c r="C127" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1830000000000069</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E127" s="70"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="e">
         <f>IF(A127+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A127+'Input Data 1'!C$4,"stop")</f>
-        <v>12.299999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B128" s="54">
         <v>0.47731999999999997</v>
@@ -6701,16 +6727,16 @@
       <c r="C128" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.184500000000007</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E128" s="70"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="e">
         <f>IF(A128+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A128+'Input Data 1'!C$4,"stop")</f>
-        <v>12.399999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B129" s="54">
         <v>0.47172000000000003</v>
@@ -6718,16 +6744,16 @@
       <c r="C129" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.186000000000007</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E129" s="70"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="e">
         <f>IF(A129+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A129+'Input Data 1'!C$4,"stop")</f>
-        <v>12.499999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B130" s="54">
         <v>0.46611999999999998</v>
@@ -6735,16 +6761,16 @@
       <c r="C130" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1875000000000071</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E130" s="70"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="e">
         <f>IF(A130+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A130+'Input Data 1'!C$4,"stop")</f>
-        <v>12.599999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B131" s="54">
         <v>0.50416666666666698</v>
@@ -6752,16 +6778,16 @@
       <c r="C131" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1890000000000072</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E131" s="70"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="e">
         <f>IF(A131+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A131+'Input Data 1'!C$4,"stop")</f>
-        <v>12.699999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B132" s="54">
         <v>0.55312499999999998</v>
@@ -6769,16 +6795,16 @@
       <c r="C132" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1905000000000072</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E132" s="70"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="e">
         <f>IF(A132+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A132+'Input Data 1'!C$4,"stop")</f>
-        <v>12.799999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B133" s="54">
         <v>0.60208333333333308</v>
@@ -6786,16 +6812,16 @@
       <c r="C133" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1920000000000073</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E133" s="70"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="e">
         <f>IF(A133+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A133+'Input Data 1'!C$4,"stop")</f>
-        <v>12.89999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B134" s="54">
         <v>0.65104166666666696</v>
@@ -6803,16 +6829,16 @@
       <c r="C134" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1935000000000073</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E134" s="70"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="e">
         <f>IF(A134+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A134+'Input Data 1'!C$4,"stop")</f>
-        <v>12.99999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B135" s="54">
         <v>0.7</v>
@@ -6820,16 +6846,16 @@
       <c r="C135" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1950000000000074</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E135" s="70"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="e">
         <f>IF(A135+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A135+'Input Data 1'!C$4,"stop")</f>
-        <v>13.099999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B136" s="54">
         <v>0.68859999999999999</v>
@@ -6837,16 +6863,16 @@
       <c r="C136" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1965000000000074</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E136" s="70"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="e">
         <f>IF(A136+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A136+'Input Data 1'!C$4,"stop")</f>
-        <v>13.199999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B137" s="54">
         <v>0.67720000000000002</v>
@@ -6854,16 +6880,16 @@
       <c r="C137" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1980000000000075</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E137" s="70"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="e">
         <f>IF(A137+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A137+'Input Data 1'!C$4,"stop")</f>
-        <v>13.299999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B138" s="54">
         <v>0.66579999999999995</v>
@@ -6871,16 +6897,16 @@
       <c r="C138" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.1995000000000076</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E138" s="70"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="e">
         <f>IF(A138+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A138+'Input Data 1'!C$4,"stop")</f>
-        <v>13.399999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B139" s="54">
         <v>0.65439999999999998</v>
@@ -6888,16 +6914,16 @@
       <c r="C139" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2010000000000076</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E139" s="70"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="e">
         <f>IF(A139+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A139+'Input Data 1'!C$4,"stop")</f>
-        <v>13.499999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B140" s="54">
         <v>0.64300000000000002</v>
@@ -6905,16 +6931,16 @@
       <c r="C140" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2025000000000077</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E140" s="70"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="e">
         <f>IF(A140+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A140+'Input Data 1'!C$4,"stop")</f>
-        <v>13.599999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B141" s="54">
         <v>0.63160000000000005</v>
@@ -6922,16 +6948,16 @@
       <c r="C141" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2040000000000077</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E141" s="70"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="e">
         <f>IF(A141+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A141+'Input Data 1'!C$4,"stop")</f>
-        <v>13.699999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B142" s="54">
         <v>0.62020000000000008</v>
@@ -6939,16 +6965,16 @@
       <c r="C142" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2055000000000078</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E142" s="70"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="e">
         <f>IF(A142+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A142+'Input Data 1'!C$4,"stop")</f>
-        <v>13.799999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B143" s="54">
         <v>0.60880000000000001</v>
@@ -6956,16 +6982,16 @@
       <c r="C143" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2070000000000078</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E143" s="70"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="e">
         <f>IF(A143+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A143+'Input Data 1'!C$4,"stop")</f>
-        <v>13.899999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B144" s="54">
         <v>0.59739999999999993</v>
@@ -6973,16 +6999,16 @@
       <c r="C144" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2085000000000079</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E144" s="70"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="e">
         <f>IF(A144+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A144+'Input Data 1'!C$4,"stop")</f>
-        <v>13.999999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B145" s="54">
         <v>0.58599999999999997</v>
@@ -6990,16 +7016,16 @@
       <c r="C145" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.210000000000008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E145" s="70"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="e">
         <f>IF(A145+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A145+'Input Data 1'!C$4,"stop")</f>
-        <v>14.099999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B146" s="54">
         <v>0.5746</v>
@@ -7007,16 +7033,16 @@
       <c r="C146" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.211500000000008</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E146" s="70"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="e">
         <f>IF(A146+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A146+'Input Data 1'!C$4,"stop")</f>
-        <v>14.199999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B147" s="54">
         <v>0.56320000000000003</v>
@@ -7024,16 +7050,16 @@
       <c r="C147" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2130000000000081</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E147" s="70"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="e">
         <f>IF(A147+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A147+'Input Data 1'!C$4,"stop")</f>
-        <v>14.299999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B148" s="54">
         <v>0.55179999999999996</v>
@@ -7041,16 +7067,16 @@
       <c r="C148" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2145000000000081</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E148" s="70"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="e">
         <f>IF(A148+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A148+'Input Data 1'!C$4,"stop")</f>
-        <v>14.399999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B149" s="54">
         <v>0.54039999999999999</v>
@@ -7058,16 +7084,16 @@
       <c r="C149" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2160000000000082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E149" s="70"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="e">
         <f>IF(A149+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A149+'Input Data 1'!C$4,"stop")</f>
-        <v>14.499999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B150" s="54">
         <v>0.52900000000000003</v>
@@ -7075,16 +7101,16 @@
       <c r="C150" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2175000000000082</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E150" s="70"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="e">
         <f>IF(A150+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A150+'Input Data 1'!C$4,"stop")</f>
-        <v>14.599999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B151" s="54">
         <v>0.51760000000000006</v>
@@ -7092,16 +7118,16 @@
       <c r="C151" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2190000000000083</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E151" s="70"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="e">
         <f>IF(A151+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A151+'Input Data 1'!C$4,"stop")</f>
-        <v>14.699999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B152" s="54">
         <v>0.50619999999999998</v>
@@ -7109,16 +7135,16 @@
       <c r="C152" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2205000000000084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E152" s="70"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="e">
         <f>IF(A152+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A152+'Input Data 1'!C$4,"stop")</f>
-        <v>14.799999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B153" s="54">
         <v>0.49480000000000002</v>
@@ -7126,16 +7152,16 @@
       <c r="C153" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2220000000000084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E153" s="70"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="e">
         <f>IF(A153+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A153+'Input Data 1'!C$4,"stop")</f>
-        <v>14.899999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B154" s="54">
         <v>0.4834</v>
@@ -7143,16 +7169,16 @@
       <c r="C154" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2235000000000085</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E154" s="70"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="e">
         <f>IF(A154+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A154+'Input Data 1'!C$4,"stop")</f>
-        <v>14.999999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B155" s="54">
         <v>0.47199999999999998</v>
@@ -7160,16 +7186,16 @@
       <c r="C155" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2250000000000085</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E155" s="70"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="e">
         <f>IF(A155+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A155+'Input Data 1'!C$4,"stop")</f>
-        <v>15.099999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B156" s="54">
         <v>0.47186666666666699</v>
@@ -7177,16 +7203,16 @@
       <c r="C156" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="1" t="e">
         <f t="shared" si="2"/>
-        <v>1.2265000000000086</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E156" s="70"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="e">
         <f>IF(A156+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A156+'Input Data 1'!C$4,"stop")</f>
-        <v>15.199999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B157" s="54">
         <v>0.471733333333333</v>
@@ -7194,16 +7220,16 @@
       <c r="C157" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="1" t="e">
         <f t="shared" ref="D157:D188" si="3">D156+((A157-A156)*C157)</f>
-        <v>1.2280000000000086</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E157" s="70"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="e">
         <f>IF(A157+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A157+'Input Data 1'!C$4,"stop")</f>
-        <v>15.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B158" s="54">
         <v>0.47160000000000002</v>
@@ -7211,16 +7237,16 @@
       <c r="C158" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2295000000000087</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E158" s="70"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="e">
         <f>IF(A158+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A158+'Input Data 1'!C$4,"stop")</f>
-        <v>15.399999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B159" s="54">
         <v>0.47146666666666698</v>
@@ -7228,16 +7254,16 @@
       <c r="C159" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2310000000000088</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E159" s="70"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="e">
         <f>IF(A159+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A159+'Input Data 1'!C$4,"stop")</f>
-        <v>15.499999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B160" s="54">
         <v>0.47133333333333299</v>
@@ -7245,16 +7271,16 @@
       <c r="C160" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2325000000000088</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E160" s="70"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="e">
         <f>IF(A160+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A160+'Input Data 1'!C$4,"stop")</f>
-        <v>15.599999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B161" s="54">
         <v>0.47120000000000001</v>
@@ -7262,16 +7288,16 @@
       <c r="C161" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2340000000000089</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E161" s="70"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="e">
         <f>IF(A161+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A161+'Input Data 1'!C$4,"stop")</f>
-        <v>15.69999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B162" s="54">
         <v>0.47106666666666702</v>
@@ -7279,16 +7305,16 @@
       <c r="C162" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2355000000000089</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E162" s="70"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="e">
         <f>IF(A162+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A162+'Input Data 1'!C$4,"stop")</f>
-        <v>15.79999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B163" s="54">
         <v>0.47093333333333298</v>
@@ -7296,16 +7322,16 @@
       <c r="C163" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.237000000000009</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E163" s="70"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="e">
         <f>IF(A163+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A163+'Input Data 1'!C$4,"stop")</f>
-        <v>15.899999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B164" s="54">
         <v>0.4708</v>
@@ -7313,16 +7339,16 @@
       <c r="C164" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.238500000000009</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E164" s="70"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="e">
         <f>IF(A164+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A164+'Input Data 1'!C$4,"stop")</f>
-        <v>15.999999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B165" s="54">
         <v>0.47066666666666701</v>
@@ -7330,16 +7356,16 @@
       <c r="C165" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2400000000000091</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E165" s="70"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="e">
         <f>IF(A165+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A165+'Input Data 1'!C$4,"stop")</f>
-        <v>16.099999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B166" s="54">
         <v>0.47053333333333303</v>
@@ -7347,16 +7373,16 @@
       <c r="C166" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2415000000000092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E166" s="70"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="e">
         <f>IF(A166+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A166+'Input Data 1'!C$4,"stop")</f>
-        <v>16.19999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B167" s="54">
         <v>0.47039999999999998</v>
@@ -7364,16 +7390,16 @@
       <c r="C167" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2430000000000092</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E167" s="70"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="e">
         <f>IF(A167+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A167+'Input Data 1'!C$4,"stop")</f>
-        <v>16.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B168" s="54">
         <v>0.470266666666667</v>
@@ -7381,16 +7407,16 @@
       <c r="C168" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2445000000000093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E168" s="70"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="e">
         <f>IF(A168+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A168+'Input Data 1'!C$4,"stop")</f>
-        <v>16.399999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B169" s="54">
         <v>0.47013333333333296</v>
@@ -7398,16 +7424,16 @@
       <c r="C169" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="1" t="e">
         <f t="shared" si="3"/>
-        <v>1.2460000000000093</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E169" s="70"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="str">
+      <c r="A170" s="1" t="e">
         <f>IF(A169+'Input Data 1'!C$4&lt;='Input Data 1'!C$6,A169+'Input Data 1'!C$4,"stop")</f>
-        <v>stop</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B170" s="54">
         <v>0.47</v>
@@ -7757,7 +7783,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,7 +7815,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>42964.90470590278</v>
+        <v>43063.638130092593</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -8650,7 +8676,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>42964.90470590278</v>
+        <v>43063.638130092593</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="31"/>
@@ -8828,7 +8854,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="34">
         <f>'Input Data 2'!A6</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B6" s="34">
         <f t="shared" ref="B6:B69" si="0">B5</f>
@@ -8888,7 +8914,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="34">
         <f>'Input Data 2'!A7</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B7" s="34">
         <f t="shared" si="0"/>
@@ -8948,7 +8974,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="34">
         <f>'Input Data 2'!A8</f>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B8" s="34">
         <f t="shared" si="0"/>
@@ -9008,7 +9034,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="34">
         <f>'Input Data 2'!A9</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="34">
         <f t="shared" si="0"/>
@@ -9068,7 +9094,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="34">
         <f>'Input Data 2'!A10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="34">
         <f t="shared" si="0"/>
@@ -9128,7 +9154,7 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="34">
         <f>'Input Data 2'!A11</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B11" s="34">
         <f t="shared" si="0"/>
@@ -9188,7 +9214,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
         <f>'Input Data 2'!A12</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="B12" s="34">
         <f t="shared" si="0"/>
@@ -9248,7 +9274,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="34">
         <f>'Input Data 2'!A13</f>
-        <v>0.79999999999999993</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="B13" s="34">
         <f t="shared" si="0"/>
@@ -9308,7 +9334,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="34">
         <f>'Input Data 2'!A14</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="B14" s="34">
         <f t="shared" si="0"/>
@@ -9368,7 +9394,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <f>'Input Data 2'!A15</f>
-        <v>0.99999999999999989</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="B15" s="34">
         <f t="shared" si="0"/>
@@ -9428,7 +9454,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f>'Input Data 2'!A16</f>
-        <v>1.0999999999999999</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="B16" s="34">
         <f t="shared" si="0"/>
@@ -9488,7 +9514,7 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <f>'Input Data 2'!A17</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="B17" s="34">
         <f t="shared" si="0"/>
@@ -9548,7 +9574,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>'Input Data 2'!A18</f>
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="B18" s="34">
         <f t="shared" si="0"/>
@@ -9608,7 +9634,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>'Input Data 2'!A19</f>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B19" s="34">
         <f t="shared" si="0"/>
@@ -9668,7 +9694,7 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>'Input Data 2'!A20</f>
-        <v>1.5000000000000002</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="B20" s="34">
         <f t="shared" si="0"/>
@@ -9728,7 +9754,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>'Input Data 2'!A21</f>
-        <v>1.6000000000000003</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="B21" s="34">
         <f t="shared" si="0"/>
@@ -9788,7 +9814,7 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>'Input Data 2'!A22</f>
-        <v>1.7000000000000004</v>
+        <v>3.4000000000000008</v>
       </c>
       <c r="B22" s="34">
         <f t="shared" si="0"/>
@@ -9848,7 +9874,7 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>'Input Data 2'!A23</f>
-        <v>1.8000000000000005</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="B23" s="34">
         <f t="shared" si="0"/>
@@ -9908,7 +9934,7 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>'Input Data 2'!A24</f>
-        <v>1.9000000000000006</v>
+        <v>3.8000000000000012</v>
       </c>
       <c r="B24" s="34">
         <f t="shared" si="0"/>
@@ -9968,7 +9994,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <f>'Input Data 2'!A25</f>
-        <v>2.0000000000000004</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="B25" s="36">
         <f t="shared" si="0"/>
@@ -10026,7 +10052,7 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <f>'Input Data 2'!A26</f>
-        <v>2.1000000000000005</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="B26" s="36">
         <f t="shared" si="0"/>
@@ -10084,7 +10110,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <f>'Input Data 2'!A27</f>
-        <v>2.2000000000000006</v>
+        <v>4.4000000000000012</v>
       </c>
       <c r="B27" s="36">
         <f t="shared" si="0"/>
@@ -10142,7 +10168,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <f>'Input Data 2'!A28</f>
-        <v>2.3000000000000007</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="B28" s="36">
         <f t="shared" si="0"/>
@@ -10200,7 +10226,7 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <f>'Input Data 2'!A29</f>
-        <v>2.4000000000000008</v>
+        <v>4.8000000000000016</v>
       </c>
       <c r="B29" s="36">
         <f t="shared" si="0"/>
@@ -10258,7 +10284,7 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <f>'Input Data 2'!A30</f>
-        <v>2.5000000000000009</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="B30" s="36">
         <f t="shared" si="0"/>
@@ -10316,7 +10342,7 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <f>'Input Data 2'!A31</f>
-        <v>2.600000000000001</v>
+        <v>5.200000000000002</v>
       </c>
       <c r="B31" s="36">
         <f t="shared" si="0"/>
@@ -10374,7 +10400,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <f>'Input Data 2'!A32</f>
-        <v>2.7000000000000011</v>
+        <v>5.4000000000000021</v>
       </c>
       <c r="B32" s="36">
         <f t="shared" si="0"/>
@@ -10432,7 +10458,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <f>'Input Data 2'!A33</f>
-        <v>2.8000000000000012</v>
+        <v>5.6000000000000023</v>
       </c>
       <c r="B33" s="36">
         <f t="shared" si="0"/>
@@ -10490,7 +10516,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <f>'Input Data 2'!A34</f>
-        <v>2.9000000000000012</v>
+        <v>5.8000000000000025</v>
       </c>
       <c r="B34" s="36">
         <f t="shared" si="0"/>
@@ -10548,7 +10574,7 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <f>'Input Data 2'!A35</f>
-        <v>3.0000000000000013</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="B35" s="36">
         <f t="shared" si="0"/>
@@ -10606,7 +10632,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <f>'Input Data 2'!A36</f>
-        <v>3.1000000000000014</v>
+        <v>6.2000000000000028</v>
       </c>
       <c r="B36" s="36">
         <f t="shared" si="0"/>
@@ -10664,7 +10690,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <f>'Input Data 2'!A37</f>
-        <v>3.2000000000000015</v>
+        <v>6.400000000000003</v>
       </c>
       <c r="B37" s="36">
         <f t="shared" si="0"/>
@@ -10722,7 +10748,7 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <f>'Input Data 2'!A38</f>
-        <v>3.3000000000000016</v>
+        <v>6.6000000000000032</v>
       </c>
       <c r="B38" s="36">
         <f t="shared" si="0"/>
@@ -10780,7 +10806,7 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <f>'Input Data 2'!A39</f>
-        <v>3.4000000000000017</v>
+        <v>6.8000000000000034</v>
       </c>
       <c r="B39" s="36">
         <f t="shared" si="0"/>
@@ -10838,7 +10864,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <f>'Input Data 2'!A40</f>
-        <v>3.5000000000000018</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="B40" s="36">
         <f t="shared" si="0"/>
@@ -10896,7 +10922,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <f>'Input Data 2'!A41</f>
-        <v>3.6000000000000019</v>
+        <v>7.2000000000000037</v>
       </c>
       <c r="B41" s="36">
         <f t="shared" si="0"/>
@@ -10954,7 +10980,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <f>'Input Data 2'!A42</f>
-        <v>3.700000000000002</v>
+        <v>7.4000000000000039</v>
       </c>
       <c r="B42" s="36">
         <f t="shared" si="0"/>
@@ -11012,7 +11038,7 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <f>'Input Data 2'!A43</f>
-        <v>3.800000000000002</v>
+        <v>7.6000000000000041</v>
       </c>
       <c r="B43" s="36">
         <f t="shared" si="0"/>
@@ -11070,7 +11096,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <f>'Input Data 2'!A44</f>
-        <v>3.9000000000000021</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="B44" s="36">
         <f t="shared" si="0"/>
@@ -11128,7 +11154,7 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <f>'Input Data 2'!A45</f>
-        <v>4.0000000000000018</v>
+        <v>8.0000000000000036</v>
       </c>
       <c r="B45" s="36">
         <f t="shared" si="0"/>
@@ -11186,7 +11212,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>'Input Data 2'!A46</f>
-        <v>4.1000000000000014</v>
+        <v>8.2000000000000028</v>
       </c>
       <c r="B46" s="36">
         <f t="shared" si="0"/>
@@ -11244,7 +11270,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>'Input Data 2'!A47</f>
-        <v>4.2000000000000011</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="B47" s="36">
         <f t="shared" si="0"/>
@@ -11302,7 +11328,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>'Input Data 2'!A48</f>
-        <v>4.3000000000000007</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="B48" s="36">
         <f t="shared" si="0"/>
@@ -11360,7 +11386,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>'Input Data 2'!A49</f>
-        <v>4.4000000000000004</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B49" s="36">
         <f t="shared" si="0"/>
@@ -11418,7 +11444,7 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>'Input Data 2'!A50</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="B50" s="36">
         <f t="shared" si="0"/>
@@ -11476,7 +11502,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>'Input Data 2'!A51</f>
-        <v>4.5999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B51" s="36">
         <f t="shared" si="0"/>
@@ -11534,7 +11560,7 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>'Input Data 2'!A52</f>
-        <v>4.6999999999999993</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="B52" s="36">
         <f t="shared" si="0"/>
@@ -11592,7 +11618,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>'Input Data 2'!A53</f>
-        <v>4.7999999999999989</v>
+        <v>9.5999999999999979</v>
       </c>
       <c r="B53" s="36">
         <f t="shared" si="0"/>
@@ -11650,7 +11676,7 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>'Input Data 2'!A54</f>
-        <v>4.8999999999999986</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="B54" s="36">
         <f t="shared" si="0"/>
@@ -11708,7 +11734,7 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>'Input Data 2'!A55</f>
-        <v>4.9999999999999982</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="B55" s="36">
         <f t="shared" si="0"/>
@@ -11766,7 +11792,7 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>'Input Data 2'!A56</f>
-        <v>5.0999999999999979</v>
+        <v>10.199999999999996</v>
       </c>
       <c r="B56" s="36">
         <f t="shared" si="0"/>
@@ -11824,7 +11850,7 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>'Input Data 2'!A57</f>
-        <v>5.1999999999999975</v>
+        <v>10.399999999999995</v>
       </c>
       <c r="B57" s="36">
         <f t="shared" si="0"/>
@@ -11882,7 +11908,7 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>'Input Data 2'!A58</f>
-        <v>5.2999999999999972</v>
+        <v>10.599999999999994</v>
       </c>
       <c r="B58" s="36">
         <f t="shared" si="0"/>
@@ -11940,7 +11966,7 @@
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>'Input Data 2'!A59</f>
-        <v>5.3999999999999968</v>
+        <v>10.799999999999994</v>
       </c>
       <c r="B59" s="36">
         <f t="shared" si="0"/>
@@ -11998,7 +12024,7 @@
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>'Input Data 2'!A60</f>
-        <v>5.4999999999999964</v>
+        <v>10.999999999999993</v>
       </c>
       <c r="B60" s="36">
         <f t="shared" si="0"/>
@@ -12056,7 +12082,7 @@
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>'Input Data 2'!A61</f>
-        <v>5.5999999999999961</v>
+        <v>11.199999999999992</v>
       </c>
       <c r="B61" s="36">
         <f t="shared" si="0"/>
@@ -12114,7 +12140,7 @@
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>'Input Data 2'!A62</f>
-        <v>5.6999999999999957</v>
+        <v>11.399999999999991</v>
       </c>
       <c r="B62" s="36">
         <f t="shared" si="0"/>
@@ -12172,7 +12198,7 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>'Input Data 2'!A63</f>
-        <v>5.7999999999999954</v>
+        <v>11.599999999999991</v>
       </c>
       <c r="B63" s="36">
         <f t="shared" si="0"/>
@@ -12230,7 +12256,7 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>'Input Data 2'!A64</f>
-        <v>5.899999999999995</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="B64" s="36">
         <f t="shared" si="0"/>
@@ -12288,7 +12314,7 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>'Input Data 2'!A65</f>
-        <v>5.9999999999999947</v>
+        <v>11.999999999999989</v>
       </c>
       <c r="B65" s="36">
         <f t="shared" si="0"/>
@@ -12346,7 +12372,7 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>'Input Data 2'!A66</f>
-        <v>6.0999999999999943</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="B66" s="36">
         <f t="shared" si="0"/>
@@ -12404,7 +12430,7 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>'Input Data 2'!A67</f>
-        <v>6.199999999999994</v>
+        <v>12.399999999999988</v>
       </c>
       <c r="B67" s="36">
         <f t="shared" si="0"/>
@@ -12462,7 +12488,7 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>'Input Data 2'!A68</f>
-        <v>6.2999999999999936</v>
+        <v>12.599999999999987</v>
       </c>
       <c r="B68" s="36">
         <f t="shared" si="0"/>
@@ -12520,7 +12546,7 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>'Input Data 2'!A69</f>
-        <v>6.3999999999999932</v>
+        <v>12.799999999999986</v>
       </c>
       <c r="B69" s="36">
         <f t="shared" si="0"/>
@@ -12578,7 +12604,7 @@
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>'Input Data 2'!A70</f>
-        <v>6.4999999999999929</v>
+        <v>12.999999999999986</v>
       </c>
       <c r="B70" s="36">
         <f t="shared" ref="B70:N85" si="13">B69</f>
@@ -12636,7 +12662,7 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>'Input Data 2'!A71</f>
-        <v>6.5999999999999925</v>
+        <v>13.199999999999985</v>
       </c>
       <c r="B71" s="36">
         <f t="shared" si="13"/>
@@ -12694,7 +12720,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>'Input Data 2'!A72</f>
-        <v>6.6999999999999922</v>
+        <v>13.399999999999984</v>
       </c>
       <c r="B72" s="36">
         <f t="shared" si="13"/>
@@ -12752,7 +12778,7 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>'Input Data 2'!A73</f>
-        <v>6.7999999999999918</v>
+        <v>13.599999999999984</v>
       </c>
       <c r="B73" s="36">
         <f t="shared" si="13"/>
@@ -12810,7 +12836,7 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>'Input Data 2'!A74</f>
-        <v>6.8999999999999915</v>
+        <v>13.799999999999983</v>
       </c>
       <c r="B74" s="36">
         <f t="shared" si="13"/>
@@ -12868,7 +12894,7 @@
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>'Input Data 2'!A75</f>
-        <v>6.9999999999999911</v>
+        <v>13.999999999999982</v>
       </c>
       <c r="B75" s="36">
         <f t="shared" si="13"/>
@@ -12926,7 +12952,7 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>'Input Data 2'!A76</f>
-        <v>7.0999999999999908</v>
+        <v>14.199999999999982</v>
       </c>
       <c r="B76" s="36">
         <f t="shared" si="13"/>
@@ -12984,7 +13010,7 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>'Input Data 2'!A77</f>
-        <v>7.1999999999999904</v>
+        <v>14.399999999999981</v>
       </c>
       <c r="B77" s="36">
         <f t="shared" si="13"/>
@@ -13042,7 +13068,7 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>'Input Data 2'!A78</f>
-        <v>7.2999999999999901</v>
+        <v>14.59999999999998</v>
       </c>
       <c r="B78" s="36">
         <f t="shared" si="13"/>
@@ -13100,7 +13126,7 @@
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>'Input Data 2'!A79</f>
-        <v>7.3999999999999897</v>
+        <v>14.799999999999979</v>
       </c>
       <c r="B79" s="36">
         <f t="shared" si="13"/>
@@ -13158,7 +13184,7 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>'Input Data 2'!A80</f>
-        <v>7.4999999999999893</v>
+        <v>14.999999999999979</v>
       </c>
       <c r="B80" s="36">
         <f t="shared" si="13"/>
@@ -13216,7 +13242,7 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>'Input Data 2'!A81</f>
-        <v>7.599999999999989</v>
+        <v>15.199999999999978</v>
       </c>
       <c r="B81" s="36">
         <f t="shared" si="13"/>
@@ -13274,7 +13300,7 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>'Input Data 2'!A82</f>
-        <v>7.6999999999999886</v>
+        <v>15.399999999999977</v>
       </c>
       <c r="B82" s="36">
         <f t="shared" si="13"/>
@@ -13332,7 +13358,7 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>'Input Data 2'!A83</f>
-        <v>7.7999999999999883</v>
+        <v>15.599999999999977</v>
       </c>
       <c r="B83" s="36">
         <f t="shared" si="13"/>
@@ -13390,7 +13416,7 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>'Input Data 2'!A84</f>
-        <v>7.8999999999999879</v>
+        <v>15.799999999999976</v>
       </c>
       <c r="B84" s="36">
         <f t="shared" si="13"/>
@@ -13448,7 +13474,7 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>'Input Data 2'!A85</f>
-        <v>7.9999999999999876</v>
+        <v>15.999999999999975</v>
       </c>
       <c r="B85" s="36">
         <f t="shared" si="13"/>
@@ -13506,7 +13532,7 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>'Input Data 2'!A86</f>
-        <v>8.0999999999999872</v>
+        <v>16.199999999999974</v>
       </c>
       <c r="B86" s="36">
         <f t="shared" ref="B86:N101" si="14">B85</f>
@@ -13564,7 +13590,7 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f>'Input Data 2'!A87</f>
-        <v>8.1999999999999869</v>
+        <v>16.399999999999974</v>
       </c>
       <c r="B87" s="36">
         <f t="shared" si="14"/>
@@ -13620,9 +13646,9 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="str">
         <f>'Input Data 2'!A88</f>
-        <v>8.2999999999999865</v>
+        <v>stop</v>
       </c>
       <c r="B88" s="36">
         <f t="shared" si="14"/>
@@ -13678,9 +13704,9 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="e">
         <f>'Input Data 2'!A89</f>
-        <v>8.3999999999999861</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B89" s="36">
         <f t="shared" si="14"/>
@@ -13736,9 +13762,9 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="e">
         <f>'Input Data 2'!A90</f>
-        <v>8.4999999999999858</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B90" s="36">
         <f t="shared" si="14"/>
@@ -13794,9 +13820,9 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="e">
         <f>'Input Data 2'!A91</f>
-        <v>8.5999999999999854</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B91" s="36">
         <f t="shared" si="14"/>
@@ -13852,9 +13878,9 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="e">
         <f>'Input Data 2'!A92</f>
-        <v>8.6999999999999851</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B92" s="36">
         <f t="shared" si="14"/>
@@ -13910,9 +13936,9 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="e">
         <f>'Input Data 2'!A93</f>
-        <v>8.7999999999999847</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B93" s="36">
         <f t="shared" si="14"/>
@@ -13968,9 +13994,9 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="e">
         <f>'Input Data 2'!A94</f>
-        <v>8.8999999999999844</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B94" s="36">
         <f t="shared" si="14"/>
@@ -14026,9 +14052,9 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="e">
         <f>'Input Data 2'!A95</f>
-        <v>8.999999999999984</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B95" s="36">
         <f t="shared" si="14"/>
@@ -14084,9 +14110,9 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="e">
         <f>'Input Data 2'!A96</f>
-        <v>9.0999999999999837</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B96" s="36">
         <f t="shared" si="14"/>
@@ -14142,9 +14168,9 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="e">
         <f>'Input Data 2'!A97</f>
-        <v>9.1999999999999833</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B97" s="36">
         <f t="shared" si="14"/>
@@ -14200,9 +14226,9 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="e">
         <f>'Input Data 2'!A98</f>
-        <v>9.2999999999999829</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B98" s="36">
         <f t="shared" si="14"/>
@@ -14258,9 +14284,9 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="e">
         <f>'Input Data 2'!A99</f>
-        <v>9.3999999999999826</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B99" s="36">
         <f t="shared" si="14"/>
@@ -14316,9 +14342,9 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="e">
         <f>'Input Data 2'!A100</f>
-        <v>9.4999999999999822</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B100" s="36">
         <f t="shared" si="14"/>
@@ -14374,9 +14400,9 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="e">
         <f>'Input Data 2'!A101</f>
-        <v>9.5999999999999819</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B101" s="36">
         <f t="shared" si="14"/>
@@ -14432,9 +14458,9 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="e">
         <f>'Input Data 2'!A102</f>
-        <v>9.6999999999999815</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B102" s="36">
         <f t="shared" ref="B102:N117" si="15">B101</f>
@@ -14490,9 +14516,9 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="e">
         <f>'Input Data 2'!A103</f>
-        <v>9.7999999999999812</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B103" s="36">
         <f t="shared" si="15"/>
@@ -14548,9 +14574,9 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="e">
         <f>'Input Data 2'!A104</f>
-        <v>9.8999999999999808</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B104" s="36">
         <f t="shared" si="15"/>
@@ -14606,9 +14632,9 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="e">
         <f>'Input Data 2'!A105</f>
-        <v>9.9999999999999805</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B105" s="36">
         <f t="shared" si="15"/>
@@ -14664,9 +14690,9 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="e">
         <f>'Input Data 2'!A106</f>
-        <v>10.09999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B106" s="36">
         <f t="shared" si="15"/>
@@ -14722,9 +14748,9 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="e">
         <f>'Input Data 2'!A107</f>
-        <v>10.19999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B107" s="36">
         <f t="shared" si="15"/>
@@ -14780,9 +14806,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="e">
         <f>'Input Data 2'!A108</f>
-        <v>10.299999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B108" s="36">
         <f t="shared" si="15"/>
@@ -14838,9 +14864,9 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="e">
         <f>'Input Data 2'!A109</f>
-        <v>10.399999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B109" s="36">
         <f t="shared" si="15"/>
@@ -14896,9 +14922,9 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="e">
         <f>'Input Data 2'!A110</f>
-        <v>10.499999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B110" s="36">
         <f t="shared" si="15"/>
@@ -14954,9 +14980,9 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="e">
         <f>'Input Data 2'!A111</f>
-        <v>10.599999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B111" s="36">
         <f t="shared" si="15"/>
@@ -15012,9 +15038,9 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="e">
         <f>'Input Data 2'!A112</f>
-        <v>10.699999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B112" s="36">
         <f t="shared" si="15"/>
@@ -15070,9 +15096,9 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="e">
         <f>'Input Data 2'!A113</f>
-        <v>10.799999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B113" s="36">
         <f t="shared" si="15"/>
@@ -15128,9 +15154,9 @@
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="e">
         <f>'Input Data 2'!A114</f>
-        <v>10.899999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B114" s="36">
         <f t="shared" si="15"/>
@@ -15186,9 +15212,9 @@
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="e">
         <f>'Input Data 2'!A115</f>
-        <v>10.999999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B115" s="36">
         <f t="shared" si="15"/>
@@ -15244,9 +15270,9 @@
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="e">
         <f>'Input Data 2'!A116</f>
-        <v>11.099999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B116" s="36">
         <f t="shared" si="15"/>
@@ -15302,9 +15328,9 @@
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="e">
         <f>'Input Data 2'!A117</f>
-        <v>11.199999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B117" s="36">
         <f t="shared" si="15"/>
@@ -15360,9 +15386,9 @@
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="e">
         <f>'Input Data 2'!A118</f>
-        <v>11.299999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B118" s="36">
         <f t="shared" ref="B118:N133" si="16">B117</f>
@@ -15418,9 +15444,9 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="e">
         <f>'Input Data 2'!A119</f>
-        <v>11.399999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B119" s="36">
         <f t="shared" si="16"/>
@@ -15476,9 +15502,9 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="e">
         <f>'Input Data 2'!A120</f>
-        <v>11.499999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B120" s="36">
         <f t="shared" si="16"/>
@@ -15534,9 +15560,9 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="e">
         <f>'Input Data 2'!A121</f>
-        <v>11.599999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B121" s="36">
         <f t="shared" si="16"/>
@@ -15592,9 +15618,9 @@
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="e">
         <f>'Input Data 2'!A122</f>
-        <v>11.699999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B122" s="36">
         <f t="shared" si="16"/>
@@ -15650,9 +15676,9 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="e">
         <f>'Input Data 2'!A123</f>
-        <v>11.799999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B123" s="36">
         <f t="shared" si="16"/>
@@ -15708,9 +15734,9 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="e">
         <f>'Input Data 2'!A124</f>
-        <v>11.899999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B124" s="36">
         <f t="shared" si="16"/>
@@ -15766,9 +15792,9 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="e">
         <f>'Input Data 2'!A125</f>
-        <v>11.999999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B125" s="36">
         <f t="shared" si="16"/>
@@ -15824,9 +15850,9 @@
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="e">
         <f>'Input Data 2'!A126</f>
-        <v>12.099999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B126" s="36">
         <f t="shared" si="16"/>
@@ -15882,9 +15908,9 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="e">
         <f>'Input Data 2'!A127</f>
-        <v>12.199999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B127" s="36">
         <f t="shared" si="16"/>
@@ -15940,9 +15966,9 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="e">
         <f>'Input Data 2'!A128</f>
-        <v>12.299999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B128" s="36">
         <f t="shared" si="16"/>
@@ -15998,9 +16024,9 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="e">
         <f>'Input Data 2'!A129</f>
-        <v>12.399999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B129" s="36">
         <f t="shared" si="16"/>
@@ -16056,9 +16082,9 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="e">
         <f>'Input Data 2'!A130</f>
-        <v>12.499999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B130" s="36">
         <f t="shared" si="16"/>
@@ -16114,9 +16140,9 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="e">
         <f>'Input Data 2'!A131</f>
-        <v>12.599999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B131" s="36">
         <f t="shared" si="16"/>
@@ -16172,9 +16198,9 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="e">
         <f>'Input Data 2'!A132</f>
-        <v>12.699999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B132" s="36">
         <f t="shared" si="16"/>
@@ -16230,9 +16256,9 @@
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="e">
         <f>'Input Data 2'!A133</f>
-        <v>12.799999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B133" s="36">
         <f t="shared" si="16"/>
@@ -16288,9 +16314,9 @@
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="e">
         <f>'Input Data 2'!A134</f>
-        <v>12.89999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B134" s="36">
         <f t="shared" ref="B134:N149" si="17">B133</f>
@@ -16346,9 +16372,9 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="e">
         <f>'Input Data 2'!A135</f>
-        <v>12.99999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B135" s="36">
         <f t="shared" si="17"/>
@@ -16404,9 +16430,9 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="e">
         <f>'Input Data 2'!A136</f>
-        <v>13.099999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B136" s="36">
         <f t="shared" si="17"/>
@@ -16462,9 +16488,9 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="e">
         <f>'Input Data 2'!A137</f>
-        <v>13.199999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B137" s="36">
         <f t="shared" si="17"/>
@@ -16520,9 +16546,9 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="e">
         <f>'Input Data 2'!A138</f>
-        <v>13.299999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B138" s="36">
         <f t="shared" si="17"/>
@@ -16578,9 +16604,9 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="e">
         <f>'Input Data 2'!A139</f>
-        <v>13.399999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B139" s="36">
         <f t="shared" si="17"/>
@@ -16636,9 +16662,9 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="e">
         <f>'Input Data 2'!A140</f>
-        <v>13.499999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B140" s="36">
         <f t="shared" si="17"/>
@@ -16694,9 +16720,9 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="e">
         <f>'Input Data 2'!A141</f>
-        <v>13.599999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B141" s="36">
         <f t="shared" si="17"/>
@@ -16752,9 +16778,9 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="e">
         <f>'Input Data 2'!A142</f>
-        <v>13.699999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B142" s="36">
         <f t="shared" si="17"/>
@@ -16810,9 +16836,9 @@
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="e">
         <f>'Input Data 2'!A143</f>
-        <v>13.799999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B143" s="36">
         <f t="shared" si="17"/>
@@ -16868,9 +16894,9 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="e">
         <f>'Input Data 2'!A144</f>
-        <v>13.899999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B144" s="36">
         <f t="shared" si="17"/>
@@ -16926,9 +16952,9 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="e">
         <f>'Input Data 2'!A145</f>
-        <v>13.999999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B145" s="36">
         <f t="shared" si="17"/>
@@ -16984,9 +17010,9 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="e">
         <f>'Input Data 2'!A146</f>
-        <v>14.099999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B146" s="36">
         <f t="shared" si="17"/>
@@ -17042,9 +17068,9 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="e">
         <f>'Input Data 2'!A147</f>
-        <v>14.199999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B147" s="36">
         <f t="shared" si="17"/>
@@ -17100,9 +17126,9 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="e">
         <f>'Input Data 2'!A148</f>
-        <v>14.299999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B148" s="36">
         <f t="shared" si="17"/>
@@ -17158,9 +17184,9 @@
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="e">
         <f>'Input Data 2'!A149</f>
-        <v>14.399999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B149" s="36">
         <f t="shared" si="17"/>
@@ -17216,9 +17242,9 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="e">
         <f>'Input Data 2'!A150</f>
-        <v>14.499999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B150" s="36">
         <f t="shared" ref="B150:N156" si="18">B149</f>
@@ -17274,9 +17300,9 @@
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="e">
         <f>'Input Data 2'!A151</f>
-        <v>14.599999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B151" s="36">
         <f t="shared" si="18"/>
@@ -17332,9 +17358,9 @@
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="e">
         <f>'Input Data 2'!A152</f>
-        <v>14.699999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B152" s="36">
         <f t="shared" si="18"/>
@@ -17390,9 +17416,9 @@
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="e">
         <f>'Input Data 2'!A153</f>
-        <v>14.799999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B153" s="36">
         <f t="shared" si="18"/>
@@ -17448,9 +17474,9 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="e">
         <f>'Input Data 2'!A154</f>
-        <v>14.899999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B154" s="36">
         <f t="shared" si="18"/>
@@ -17506,9 +17532,9 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="e">
         <f>'Input Data 2'!A155</f>
-        <v>14.999999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B155" s="36">
         <f t="shared" si="18"/>
@@ -17564,9 +17590,9 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="e">
         <f>'Input Data 2'!A156</f>
-        <v>15.099999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B156" s="36">
         <f t="shared" si="18"/>
@@ -17622,9 +17648,9 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="A157" s="1" t="e">
         <f>'Input Data 2'!A157</f>
-        <v>15.199999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B157" s="36">
         <f t="shared" ref="B157:N157" si="19">B156</f>
@@ -17680,9 +17706,9 @@
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="A158" s="1" t="e">
         <f>'Input Data 2'!A158</f>
-        <v>15.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B158" s="36">
         <f t="shared" ref="B158:N158" si="20">B157</f>
@@ -17738,9 +17764,9 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="A159" s="1" t="e">
         <f>'Input Data 2'!A159</f>
-        <v>15.399999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B159" s="36">
         <f t="shared" ref="B159:N159" si="21">B158</f>
@@ -17796,9 +17822,9 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160" s="1" t="e">
         <f>'Input Data 2'!A160</f>
-        <v>15.499999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B160" s="36">
         <f t="shared" ref="B160:N160" si="22">B159</f>
@@ -17854,9 +17880,9 @@
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161" s="1" t="e">
         <f>'Input Data 2'!A161</f>
-        <v>15.599999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B161" s="36">
         <f t="shared" ref="B161:N161" si="23">B160</f>
@@ -17912,9 +17938,9 @@
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="A162" s="1" t="e">
         <f>'Input Data 2'!A162</f>
-        <v>15.69999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B162" s="36">
         <f t="shared" ref="B162:N162" si="24">B161</f>
@@ -17970,9 +17996,9 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="A163" s="1" t="e">
         <f>'Input Data 2'!A163</f>
-        <v>15.79999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B163" s="36">
         <f t="shared" ref="B163:N163" si="25">B162</f>
@@ -18028,9 +18054,9 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="A164" s="1" t="e">
         <f>'Input Data 2'!A164</f>
-        <v>15.899999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B164" s="36">
         <f t="shared" ref="B164:N164" si="26">B163</f>
@@ -18086,9 +18112,9 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165" s="1" t="e">
         <f>'Input Data 2'!A165</f>
-        <v>15.999999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B165" s="36">
         <f t="shared" ref="B165:N165" si="27">B164</f>
@@ -18144,9 +18170,9 @@
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166" s="1" t="e">
         <f>'Input Data 2'!A166</f>
-        <v>16.099999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B166" s="36">
         <f t="shared" ref="B166:N166" si="28">B165</f>
@@ -18202,9 +18228,9 @@
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="A167" s="1" t="e">
         <f>'Input Data 2'!A167</f>
-        <v>16.19999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B167" s="36">
         <f t="shared" ref="B167:N167" si="29">B166</f>
@@ -18260,9 +18286,9 @@
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="A168" s="1" t="e">
         <f>'Input Data 2'!A168</f>
-        <v>16.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B168" s="36">
         <f t="shared" ref="B168:N168" si="30">B167</f>
@@ -18318,9 +18344,9 @@
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="A169" s="1" t="e">
         <f>'Input Data 2'!A169</f>
-        <v>16.399999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B169" s="36">
         <f t="shared" ref="B169:N169" si="31">B168</f>
@@ -18376,9 +18402,9 @@
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="str">
+      <c r="A170" s="1" t="e">
         <f>'Input Data 2'!A170</f>
-        <v>stop</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B170" s="36">
         <f t="shared" ref="B170:N170" si="32">B169</f>
@@ -24246,7 +24272,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>'Input Data 2'!A6</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:C37" si="0">IF(ISTEXT($A6),"",B$2)</f>
@@ -24260,7 +24286,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>'Input Data 2'!A7</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -24274,7 +24300,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>'Input Data 2'!A8</f>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -24288,7 +24314,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>'Input Data 2'!A9</f>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -24302,7 +24328,7 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>'Input Data 2'!A10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -24316,7 +24342,7 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>'Input Data 2'!A11</f>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -24330,7 +24356,7 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>'Input Data 2'!A12</f>
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -24344,7 +24370,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>'Input Data 2'!A13</f>
-        <v>0.79999999999999993</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -24358,7 +24384,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>'Input Data 2'!A14</f>
-        <v>0.89999999999999991</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -24372,7 +24398,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>'Input Data 2'!A15</f>
-        <v>0.99999999999999989</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -24386,7 +24412,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>'Input Data 2'!A16</f>
-        <v>1.0999999999999999</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
@@ -24400,7 +24426,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>'Input Data 2'!A17</f>
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -24414,7 +24440,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>'Input Data 2'!A18</f>
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -24428,7 +24454,7 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>'Input Data 2'!A19</f>
-        <v>1.4000000000000001</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -24442,7 +24468,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>'Input Data 2'!A20</f>
-        <v>1.5000000000000002</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -24456,7 +24482,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>'Input Data 2'!A21</f>
-        <v>1.6000000000000003</v>
+        <v>3.2000000000000006</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -24470,7 +24496,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>'Input Data 2'!A22</f>
-        <v>1.7000000000000004</v>
+        <v>3.4000000000000008</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
@@ -24484,7 +24510,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>'Input Data 2'!A23</f>
-        <v>1.8000000000000005</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -24498,7 +24524,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>'Input Data 2'!A24</f>
-        <v>1.9000000000000006</v>
+        <v>3.8000000000000012</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -24512,7 +24538,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>'Input Data 2'!A25</f>
-        <v>2.0000000000000004</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -24526,7 +24552,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>'Input Data 2'!A26</f>
-        <v>2.1000000000000005</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -24540,7 +24566,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>'Input Data 2'!A27</f>
-        <v>2.2000000000000006</v>
+        <v>4.4000000000000012</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -24554,7 +24580,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>'Input Data 2'!A28</f>
-        <v>2.3000000000000007</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -24568,7 +24594,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>'Input Data 2'!A29</f>
-        <v>2.4000000000000008</v>
+        <v>4.8000000000000016</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
@@ -24582,7 +24608,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>'Input Data 2'!A30</f>
-        <v>2.5000000000000009</v>
+        <v>5.0000000000000018</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -24596,7 +24622,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>'Input Data 2'!A31</f>
-        <v>2.600000000000001</v>
+        <v>5.200000000000002</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -24610,7 +24636,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>'Input Data 2'!A32</f>
-        <v>2.7000000000000011</v>
+        <v>5.4000000000000021</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -24624,7 +24650,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>'Input Data 2'!A33</f>
-        <v>2.8000000000000012</v>
+        <v>5.6000000000000023</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -24638,7 +24664,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>'Input Data 2'!A34</f>
-        <v>2.9000000000000012</v>
+        <v>5.8000000000000025</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -24652,7 +24678,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>'Input Data 2'!A35</f>
-        <v>3.0000000000000013</v>
+        <v>6.0000000000000027</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
@@ -24666,7 +24692,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>'Input Data 2'!A36</f>
-        <v>3.1000000000000014</v>
+        <v>6.2000000000000028</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -24680,7 +24706,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>'Input Data 2'!A37</f>
-        <v>3.2000000000000015</v>
+        <v>6.400000000000003</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -24694,7 +24720,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>'Input Data 2'!A38</f>
-        <v>3.3000000000000016</v>
+        <v>6.6000000000000032</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" ref="B38:C54" si="1">IF(ISTEXT($A38),"",B$2)</f>
@@ -24708,7 +24734,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>'Input Data 2'!A39</f>
-        <v>3.4000000000000017</v>
+        <v>6.8000000000000034</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -24722,7 +24748,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>'Input Data 2'!A40</f>
-        <v>3.5000000000000018</v>
+        <v>7.0000000000000036</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
@@ -24736,7 +24762,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>'Input Data 2'!A41</f>
-        <v>3.6000000000000019</v>
+        <v>7.2000000000000037</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
@@ -24750,7 +24776,7 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>'Input Data 2'!A42</f>
-        <v>3.700000000000002</v>
+        <v>7.4000000000000039</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
@@ -24764,7 +24790,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>'Input Data 2'!A43</f>
-        <v>3.800000000000002</v>
+        <v>7.6000000000000041</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -24778,7 +24804,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>'Input Data 2'!A44</f>
-        <v>3.9000000000000021</v>
+        <v>7.8000000000000043</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -24792,7 +24818,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>'Input Data 2'!A45</f>
-        <v>4.0000000000000018</v>
+        <v>8.0000000000000036</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -24806,7 +24832,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>'Input Data 2'!A46</f>
-        <v>4.1000000000000014</v>
+        <v>8.2000000000000028</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -24820,7 +24846,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>'Input Data 2'!A47</f>
-        <v>4.2000000000000011</v>
+        <v>8.4000000000000021</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -24834,7 +24860,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>'Input Data 2'!A48</f>
-        <v>4.3000000000000007</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -24848,7 +24874,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>'Input Data 2'!A49</f>
-        <v>4.4000000000000004</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
@@ -24862,7 +24888,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>'Input Data 2'!A50</f>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -24876,7 +24902,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>'Input Data 2'!A51</f>
-        <v>4.5999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -24890,7 +24916,7 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>'Input Data 2'!A52</f>
-        <v>4.6999999999999993</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -24904,7 +24930,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>'Input Data 2'!A53</f>
-        <v>4.7999999999999989</v>
+        <v>9.5999999999999979</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -24918,7 +24944,7 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>'Input Data 2'!A54</f>
-        <v>4.8999999999999986</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -24932,7 +24958,7 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>'Input Data 2'!A55</f>
-        <v>4.9999999999999982</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" ref="B55:C70" si="2">IF(ISTEXT($A55),"",B$2)</f>
@@ -24946,7 +24972,7 @@
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>'Input Data 2'!A56</f>
-        <v>5.0999999999999979</v>
+        <v>10.199999999999996</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="2"/>
@@ -24960,7 +24986,7 @@
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>'Input Data 2'!A57</f>
-        <v>5.1999999999999975</v>
+        <v>10.399999999999995</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="2"/>
@@ -24974,7 +25000,7 @@
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>'Input Data 2'!A58</f>
-        <v>5.2999999999999972</v>
+        <v>10.599999999999994</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="2"/>
@@ -24988,7 +25014,7 @@
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>'Input Data 2'!A59</f>
-        <v>5.3999999999999968</v>
+        <v>10.799999999999994</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="2"/>
@@ -25002,7 +25028,7 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>'Input Data 2'!A60</f>
-        <v>5.4999999999999964</v>
+        <v>10.999999999999993</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="2"/>
@@ -25016,7 +25042,7 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>'Input Data 2'!A61</f>
-        <v>5.5999999999999961</v>
+        <v>11.199999999999992</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="2"/>
@@ -25030,7 +25056,7 @@
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>'Input Data 2'!A62</f>
-        <v>5.6999999999999957</v>
+        <v>11.399999999999991</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="2"/>
@@ -25044,7 +25070,7 @@
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>'Input Data 2'!A63</f>
-        <v>5.7999999999999954</v>
+        <v>11.599999999999991</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="2"/>
@@ -25058,7 +25084,7 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>'Input Data 2'!A64</f>
-        <v>5.899999999999995</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="2"/>
@@ -25072,7 +25098,7 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>'Input Data 2'!A65</f>
-        <v>5.9999999999999947</v>
+        <v>11.999999999999989</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="2"/>
@@ -25086,7 +25112,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>'Input Data 2'!A66</f>
-        <v>6.0999999999999943</v>
+        <v>12.199999999999989</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="2"/>
@@ -25100,7 +25126,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>'Input Data 2'!A67</f>
-        <v>6.199999999999994</v>
+        <v>12.399999999999988</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="2"/>
@@ -25114,7 +25140,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>'Input Data 2'!A68</f>
-        <v>6.2999999999999936</v>
+        <v>12.599999999999987</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="2"/>
@@ -25128,7 +25154,7 @@
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>'Input Data 2'!A69</f>
-        <v>6.3999999999999932</v>
+        <v>12.799999999999986</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="2"/>
@@ -25142,7 +25168,7 @@
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>'Input Data 2'!A70</f>
-        <v>6.4999999999999929</v>
+        <v>12.999999999999986</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="2"/>
@@ -25156,7 +25182,7 @@
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>'Input Data 2'!A71</f>
-        <v>6.5999999999999925</v>
+        <v>13.199999999999985</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" ref="B71:C134" si="3">IF(ISTEXT($A71),"",B$2)</f>
@@ -25170,7 +25196,7 @@
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>'Input Data 2'!A72</f>
-        <v>6.6999999999999922</v>
+        <v>13.399999999999984</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="3"/>
@@ -25184,7 +25210,7 @@
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>'Input Data 2'!A73</f>
-        <v>6.7999999999999918</v>
+        <v>13.599999999999984</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="3"/>
@@ -25198,7 +25224,7 @@
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>'Input Data 2'!A74</f>
-        <v>6.8999999999999915</v>
+        <v>13.799999999999983</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="3"/>
@@ -25212,7 +25238,7 @@
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>'Input Data 2'!A75</f>
-        <v>6.9999999999999911</v>
+        <v>13.999999999999982</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="3"/>
@@ -25226,7 +25252,7 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f>'Input Data 2'!A76</f>
-        <v>7.0999999999999908</v>
+        <v>14.199999999999982</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="3"/>
@@ -25240,7 +25266,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f>'Input Data 2'!A77</f>
-        <v>7.1999999999999904</v>
+        <v>14.399999999999981</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="3"/>
@@ -25254,7 +25280,7 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f>'Input Data 2'!A78</f>
-        <v>7.2999999999999901</v>
+        <v>14.59999999999998</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="3"/>
@@ -25268,7 +25294,7 @@
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>'Input Data 2'!A79</f>
-        <v>7.3999999999999897</v>
+        <v>14.799999999999979</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="3"/>
@@ -25282,7 +25308,7 @@
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>'Input Data 2'!A80</f>
-        <v>7.4999999999999893</v>
+        <v>14.999999999999979</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="3"/>
@@ -25296,7 +25322,7 @@
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f>'Input Data 2'!A81</f>
-        <v>7.599999999999989</v>
+        <v>15.199999999999978</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="3"/>
@@ -25310,7 +25336,7 @@
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f>'Input Data 2'!A82</f>
-        <v>7.6999999999999886</v>
+        <v>15.399999999999977</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="3"/>
@@ -25324,7 +25350,7 @@
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f>'Input Data 2'!A83</f>
-        <v>7.7999999999999883</v>
+        <v>15.599999999999977</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="3"/>
@@ -25338,7 +25364,7 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f>'Input Data 2'!A84</f>
-        <v>7.8999999999999879</v>
+        <v>15.799999999999976</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="3"/>
@@ -25352,7 +25378,7 @@
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f>'Input Data 2'!A85</f>
-        <v>7.9999999999999876</v>
+        <v>15.999999999999975</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="3"/>
@@ -25366,7 +25392,7 @@
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>'Input Data 2'!A86</f>
-        <v>8.0999999999999872</v>
+        <v>16.199999999999974</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="3"/>
@@ -25380,7 +25406,7 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f>'Input Data 2'!A87</f>
-        <v>8.1999999999999869</v>
+        <v>16.399999999999974</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="3"/>
@@ -25392,23 +25418,23 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="A88" s="1" t="str">
         <f>'Input Data 2'!A88</f>
-        <v>8.2999999999999865</v>
-      </c>
-      <c r="B88" s="1">
+        <v>stop</v>
+      </c>
+      <c r="B88" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>8.3783529825650158E-3</v>
-      </c>
-      <c r="C88" s="1">
+        <v/>
+      </c>
+      <c r="C88" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>2.1357437666720554E-2</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="1" t="e">
         <f>'Input Data 2'!A89</f>
-        <v>8.3999999999999861</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="3"/>
@@ -25420,9 +25446,9 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="A90" s="1" t="e">
         <f>'Input Data 2'!A90</f>
-        <v>8.4999999999999858</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="3"/>
@@ -25434,9 +25460,9 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="A91" s="1" t="e">
         <f>'Input Data 2'!A91</f>
-        <v>8.5999999999999854</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="3"/>
@@ -25448,9 +25474,9 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="1" t="e">
         <f>'Input Data 2'!A92</f>
-        <v>8.6999999999999851</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="3"/>
@@ -25462,9 +25488,9 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="A93" s="1" t="e">
         <f>'Input Data 2'!A93</f>
-        <v>8.7999999999999847</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="3"/>
@@ -25476,9 +25502,9 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="A94" s="1" t="e">
         <f>'Input Data 2'!A94</f>
-        <v>8.8999999999999844</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="3"/>
@@ -25490,9 +25516,9 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="A95" s="1" t="e">
         <f>'Input Data 2'!A95</f>
-        <v>8.999999999999984</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="3"/>
@@ -25504,9 +25530,9 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="A96" s="1" t="e">
         <f>'Input Data 2'!A96</f>
-        <v>9.0999999999999837</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="3"/>
@@ -25518,9 +25544,9 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="A97" s="1" t="e">
         <f>'Input Data 2'!A97</f>
-        <v>9.1999999999999833</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="3"/>
@@ -25532,9 +25558,9 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="A98" s="1" t="e">
         <f>'Input Data 2'!A98</f>
-        <v>9.2999999999999829</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="3"/>
@@ -25546,9 +25572,9 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="A99" s="1" t="e">
         <f>'Input Data 2'!A99</f>
-        <v>9.3999999999999826</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="3"/>
@@ -25560,9 +25586,9 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="A100" s="1" t="e">
         <f>'Input Data 2'!A100</f>
-        <v>9.4999999999999822</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="3"/>
@@ -25574,9 +25600,9 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="A101" s="1" t="e">
         <f>'Input Data 2'!A101</f>
-        <v>9.5999999999999819</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="3"/>
@@ -25588,9 +25614,9 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102" s="1" t="e">
         <f>'Input Data 2'!A102</f>
-        <v>9.6999999999999815</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="3"/>
@@ -25602,9 +25628,9 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="A103" s="1" t="e">
         <f>'Input Data 2'!A103</f>
-        <v>9.7999999999999812</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="3"/>
@@ -25616,9 +25642,9 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="A104" s="1" t="e">
         <f>'Input Data 2'!A104</f>
-        <v>9.8999999999999808</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="3"/>
@@ -25630,9 +25656,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="A105" s="1" t="e">
         <f>'Input Data 2'!A105</f>
-        <v>9.9999999999999805</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="3"/>
@@ -25644,9 +25670,9 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="A106" s="1" t="e">
         <f>'Input Data 2'!A106</f>
-        <v>10.09999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="3"/>
@@ -25658,9 +25684,9 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="A107" s="1" t="e">
         <f>'Input Data 2'!A107</f>
-        <v>10.19999999999998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="3"/>
@@ -25672,9 +25698,9 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="A108" s="1" t="e">
         <f>'Input Data 2'!A108</f>
-        <v>10.299999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="3"/>
@@ -25686,9 +25712,9 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="A109" s="1" t="e">
         <f>'Input Data 2'!A109</f>
-        <v>10.399999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="3"/>
@@ -25700,9 +25726,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="1" t="e">
         <f>'Input Data 2'!A110</f>
-        <v>10.499999999999979</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="3"/>
@@ -25714,9 +25740,9 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="1" t="e">
         <f>'Input Data 2'!A111</f>
-        <v>10.599999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="3"/>
@@ -25728,9 +25754,9 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="A112" s="1" t="e">
         <f>'Input Data 2'!A112</f>
-        <v>10.699999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="3"/>
@@ -25742,9 +25768,9 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="A113" s="1" t="e">
         <f>'Input Data 2'!A113</f>
-        <v>10.799999999999978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="3"/>
@@ -25756,9 +25782,9 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="A114" s="1" t="e">
         <f>'Input Data 2'!A114</f>
-        <v>10.899999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="3"/>
@@ -25770,9 +25796,9 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="1" t="e">
         <f>'Input Data 2'!A115</f>
-        <v>10.999999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="3"/>
@@ -25784,9 +25810,9 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="1" t="e">
         <f>'Input Data 2'!A116</f>
-        <v>11.099999999999977</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="3"/>
@@ -25798,9 +25824,9 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="1" t="e">
         <f>'Input Data 2'!A117</f>
-        <v>11.199999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="3"/>
@@ -25812,9 +25838,9 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+      <c r="A118" s="1" t="e">
         <f>'Input Data 2'!A118</f>
-        <v>11.299999999999976</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="3"/>
@@ -25826,9 +25852,9 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="A119" s="1" t="e">
         <f>'Input Data 2'!A119</f>
-        <v>11.399999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="3"/>
@@ -25840,9 +25866,9 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+      <c r="A120" s="1" t="e">
         <f>'Input Data 2'!A120</f>
-        <v>11.499999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="3"/>
@@ -25854,9 +25880,9 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+      <c r="A121" s="1" t="e">
         <f>'Input Data 2'!A121</f>
-        <v>11.599999999999975</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="3"/>
@@ -25868,9 +25894,9 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+      <c r="A122" s="1" t="e">
         <f>'Input Data 2'!A122</f>
-        <v>11.699999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="3"/>
@@ -25882,9 +25908,9 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+      <c r="A123" s="1" t="e">
         <f>'Input Data 2'!A123</f>
-        <v>11.799999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="3"/>
@@ -25896,9 +25922,9 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+      <c r="A124" s="1" t="e">
         <f>'Input Data 2'!A124</f>
-        <v>11.899999999999974</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="3"/>
@@ -25910,9 +25936,9 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="1" t="e">
         <f>'Input Data 2'!A125</f>
-        <v>11.999999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="3"/>
@@ -25924,9 +25950,9 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+      <c r="A126" s="1" t="e">
         <f>'Input Data 2'!A126</f>
-        <v>12.099999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="3"/>
@@ -25938,9 +25964,9 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+      <c r="A127" s="1" t="e">
         <f>'Input Data 2'!A127</f>
-        <v>12.199999999999973</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="3"/>
@@ -25952,9 +25978,9 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+      <c r="A128" s="1" t="e">
         <f>'Input Data 2'!A128</f>
-        <v>12.299999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="3"/>
@@ -25966,9 +25992,9 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+      <c r="A129" s="1" t="e">
         <f>'Input Data 2'!A129</f>
-        <v>12.399999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="3"/>
@@ -25980,9 +26006,9 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+      <c r="A130" s="1" t="e">
         <f>'Input Data 2'!A130</f>
-        <v>12.499999999999972</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="3"/>
@@ -25994,9 +26020,9 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+      <c r="A131" s="1" t="e">
         <f>'Input Data 2'!A131</f>
-        <v>12.599999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="3"/>
@@ -26008,9 +26034,9 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+      <c r="A132" s="1" t="e">
         <f>'Input Data 2'!A132</f>
-        <v>12.699999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" si="3"/>
@@ -26022,9 +26048,9 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+      <c r="A133" s="1" t="e">
         <f>'Input Data 2'!A133</f>
-        <v>12.799999999999971</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="3"/>
@@ -26036,9 +26062,9 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+      <c r="A134" s="1" t="e">
         <f>'Input Data 2'!A134</f>
-        <v>12.89999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="3"/>
@@ -26050,9 +26076,9 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+      <c r="A135" s="1" t="e">
         <f>'Input Data 2'!A135</f>
-        <v>12.99999999999997</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" ref="B135:C157" si="4">IF(ISTEXT($A135),"",B$2)</f>
@@ -26064,9 +26090,9 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+      <c r="A136" s="1" t="e">
         <f>'Input Data 2'!A136</f>
-        <v>13.099999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="4"/>
@@ -26078,9 +26104,9 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+      <c r="A137" s="1" t="e">
         <f>'Input Data 2'!A137</f>
-        <v>13.199999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="4"/>
@@ -26092,9 +26118,9 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+      <c r="A138" s="1" t="e">
         <f>'Input Data 2'!A138</f>
-        <v>13.299999999999969</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="4"/>
@@ -26106,9 +26132,9 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+      <c r="A139" s="1" t="e">
         <f>'Input Data 2'!A139</f>
-        <v>13.399999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="4"/>
@@ -26120,9 +26146,9 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+      <c r="A140" s="1" t="e">
         <f>'Input Data 2'!A140</f>
-        <v>13.499999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="4"/>
@@ -26134,9 +26160,9 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+      <c r="A141" s="1" t="e">
         <f>'Input Data 2'!A141</f>
-        <v>13.599999999999968</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="4"/>
@@ -26148,9 +26174,9 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+      <c r="A142" s="1" t="e">
         <f>'Input Data 2'!A142</f>
-        <v>13.699999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="4"/>
@@ -26162,9 +26188,9 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="A143" s="1" t="e">
         <f>'Input Data 2'!A143</f>
-        <v>13.799999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="4"/>
@@ -26176,9 +26202,9 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+      <c r="A144" s="1" t="e">
         <f>'Input Data 2'!A144</f>
-        <v>13.899999999999967</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="4"/>
@@ -26190,9 +26216,9 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+      <c r="A145" s="1" t="e">
         <f>'Input Data 2'!A145</f>
-        <v>13.999999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="4"/>
@@ -26204,9 +26230,9 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+      <c r="A146" s="1" t="e">
         <f>'Input Data 2'!A146</f>
-        <v>14.099999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="4"/>
@@ -26218,9 +26244,9 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+      <c r="A147" s="1" t="e">
         <f>'Input Data 2'!A147</f>
-        <v>14.199999999999966</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="4"/>
@@ -26232,9 +26258,9 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+      <c r="A148" s="1" t="e">
         <f>'Input Data 2'!A148</f>
-        <v>14.299999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="4"/>
@@ -26246,9 +26272,9 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+      <c r="A149" s="1" t="e">
         <f>'Input Data 2'!A149</f>
-        <v>14.399999999999965</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="4"/>
@@ -26260,9 +26286,9 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+      <c r="A150" s="1" t="e">
         <f>'Input Data 2'!A150</f>
-        <v>14.499999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="4"/>
@@ -26274,9 +26300,9 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+      <c r="A151" s="1" t="e">
         <f>'Input Data 2'!A151</f>
-        <v>14.599999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="4"/>
@@ -26288,9 +26314,9 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+      <c r="A152" s="1" t="e">
         <f>'Input Data 2'!A152</f>
-        <v>14.699999999999964</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="4"/>
@@ -26302,9 +26328,9 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+      <c r="A153" s="1" t="e">
         <f>'Input Data 2'!A153</f>
-        <v>14.799999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="4"/>
@@ -26316,9 +26342,9 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+      <c r="A154" s="1" t="e">
         <f>'Input Data 2'!A154</f>
-        <v>14.899999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="4"/>
@@ -26330,9 +26356,9 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="A155" s="1" t="e">
         <f>'Input Data 2'!A155</f>
-        <v>14.999999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="4"/>
@@ -26344,9 +26370,9 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="A156" s="1" t="e">
         <f>'Input Data 2'!A156</f>
-        <v>15.099999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="4"/>
@@ -26358,9 +26384,9 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="70">
+      <c r="A157" s="70" t="e">
         <f>'Input Data 2'!A157</f>
-        <v>15.199999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B157" s="70">
         <f t="shared" si="4"/>
@@ -26372,9 +26398,9 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="70">
+      <c r="A158" s="70" t="e">
         <f>'Input Data 2'!A158</f>
-        <v>15.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B158" s="70">
         <f t="shared" ref="B158:C173" si="5">IF(ISTEXT($A158),"",B$2)</f>
@@ -26386,9 +26412,9 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="70">
+      <c r="A159" s="70" t="e">
         <f>'Input Data 2'!A159</f>
-        <v>15.399999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B159" s="70">
         <f t="shared" si="5"/>
@@ -26400,9 +26426,9 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="70">
+      <c r="A160" s="70" t="e">
         <f>'Input Data 2'!A160</f>
-        <v>15.499999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B160" s="70">
         <f t="shared" si="5"/>
@@ -26414,9 +26440,9 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="70">
+      <c r="A161" s="70" t="e">
         <f>'Input Data 2'!A161</f>
-        <v>15.599999999999961</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B161" s="70">
         <f t="shared" si="5"/>
@@ -26428,9 +26454,9 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="70">
+      <c r="A162" s="70" t="e">
         <f>'Input Data 2'!A162</f>
-        <v>15.69999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B162" s="70">
         <f t="shared" si="5"/>
@@ -26442,9 +26468,9 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="70">
+      <c r="A163" s="70" t="e">
         <f>'Input Data 2'!A163</f>
-        <v>15.79999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B163" s="70">
         <f t="shared" si="5"/>
@@ -26456,9 +26482,9 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="70">
+      <c r="A164" s="70" t="e">
         <f>'Input Data 2'!A164</f>
-        <v>15.899999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B164" s="70">
         <f t="shared" si="5"/>
@@ -26470,9 +26496,9 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="70">
+      <c r="A165" s="70" t="e">
         <f>'Input Data 2'!A165</f>
-        <v>15.999999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B165" s="70">
         <f t="shared" si="5"/>
@@ -26484,9 +26510,9 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="70">
+      <c r="A166" s="70" t="e">
         <f>'Input Data 2'!A166</f>
-        <v>16.099999999999959</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B166" s="70">
         <f t="shared" si="5"/>
@@ -26498,9 +26524,9 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="70">
+      <c r="A167" s="70" t="e">
         <f>'Input Data 2'!A167</f>
-        <v>16.19999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B167" s="70">
         <f t="shared" si="5"/>
@@ -26512,9 +26538,9 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="70">
+      <c r="A168" s="70" t="e">
         <f>'Input Data 2'!A168</f>
-        <v>16.299999999999962</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B168" s="70">
         <f t="shared" si="5"/>
@@ -26526,9 +26552,9 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="70">
+      <c r="A169" s="70" t="e">
         <f>'Input Data 2'!A169</f>
-        <v>16.399999999999963</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B169" s="70">
         <f t="shared" si="5"/>
@@ -26540,17 +26566,17 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="70" t="str">
+      <c r="A170" s="70" t="e">
         <f>'Input Data 2'!A170</f>
-        <v>stop</v>
-      </c>
-      <c r="B170" s="70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B170" s="70">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C170" s="70" t="str">
+        <v>8.3783529825650158E-3</v>
+      </c>
+      <c r="C170" s="70">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2.1357437666720554E-2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
